--- a/WHO-DATA-SETS/ExcelDataSets/20200313-sitrep-53-covid-19.xlsx
+++ b/WHO-DATA-SETS/ExcelDataSets/20200313-sitrep-53-covid-19.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gunsl_000\Desktop\COVID-19 By Country\COVID-19-By-Country\WHO-DATA-SETS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gunsl_000\Desktop\COVID-19 By Country\COVID-19-By-Country\WHO-DATA-SETS\ExcelDataSets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CC26F4B-CD6A-48BC-9719-9F21ABAE4C7B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E56CCF76-6A18-410D-B9C2-90CEE696FA9B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21720" yWindow="3675" windowWidth="21840" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="184">
   <si>
     <r>
       <rPr>
@@ -2076,7 +2076,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2264,7 +2264,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2381,9 +2381,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2774,13 +2771,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:H174"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="A131" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M139" sqref="M139"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.6640625" customWidth="1"/>
     <col min="2" max="2" width="14.1640625" customWidth="1"/>
@@ -2792,901 +2789,3912 @@
     <col min="8" max="8" width="7.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="104.25" customHeight="1">
-      <c r="A1" s="39"/>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-    </row>
-    <row r="2" spans="1:8" ht="26.25" customHeight="1">
-      <c r="A2" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="44" t="s">
+    <row r="1" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="45"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="47" t="s">
+      <c r="D1" s="44"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="48"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="40"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" ht="36.950000000000003" customHeight="1">
-      <c r="A3" s="41"/>
-      <c r="B3" s="43"/>
-      <c r="C3" s="2" t="s">
+    <row r="3" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5">
+        <v>5917</v>
+      </c>
+      <c r="C3" s="6">
+        <v>5</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1</v>
+      </c>
+      <c r="E3" s="6">
+        <v>6</v>
+      </c>
+      <c r="F3" s="8">
+        <v>67786</v>
+      </c>
+      <c r="G3" s="6">
+        <v>3062</v>
+      </c>
+      <c r="H3" s="9"/>
+    </row>
+    <row r="4" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="11">
+        <v>11346</v>
+      </c>
+      <c r="C4" s="12">
+        <v>0</v>
+      </c>
+      <c r="D4" s="13">
+        <v>0</v>
+      </c>
+      <c r="E4" s="12">
+        <v>0</v>
+      </c>
+      <c r="F4" s="13">
+        <v>1356</v>
+      </c>
+      <c r="G4" s="12">
+        <v>8</v>
+      </c>
+      <c r="H4" s="9"/>
+    </row>
+    <row r="5" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5">
+        <v>9605</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0</v>
+      </c>
+      <c r="F5" s="7">
+        <v>1273</v>
+      </c>
+      <c r="G5" s="6">
+        <v>22</v>
+      </c>
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="14">
+        <v>5737</v>
+      </c>
+      <c r="C6" s="12">
+        <v>0</v>
+      </c>
+      <c r="D6" s="13">
+        <v>0</v>
+      </c>
+      <c r="E6" s="12">
+        <v>0</v>
+      </c>
+      <c r="F6" s="13">
+        <v>1215</v>
+      </c>
+      <c r="G6" s="12">
+        <v>1</v>
+      </c>
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="5">
+        <v>6899</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0</v>
+      </c>
+      <c r="F7" s="7">
+        <v>1018</v>
+      </c>
+      <c r="G7" s="6">
         <v>4</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="H7" s="9"/>
+    </row>
+    <row r="8" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="14">
+        <v>6324</v>
+      </c>
+      <c r="C8" s="12">
+        <v>0</v>
+      </c>
+      <c r="D8" s="13">
+        <v>0</v>
+      </c>
+      <c r="E8" s="12">
+        <v>0</v>
+      </c>
+      <c r="F8" s="13">
+        <v>990</v>
+      </c>
+      <c r="G8" s="12">
+        <v>6</v>
+      </c>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="5">
+        <v>4648</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0</v>
+      </c>
+      <c r="F9" s="7">
+        <v>935</v>
+      </c>
+      <c r="G9" s="6">
+        <v>1</v>
+      </c>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="11">
+        <v>10047</v>
+      </c>
+      <c r="C10" s="12">
+        <v>0</v>
+      </c>
+      <c r="D10" s="13">
+        <v>0</v>
+      </c>
+      <c r="E10" s="12">
+        <v>1</v>
+      </c>
+      <c r="F10" s="13">
+        <v>760</v>
+      </c>
+      <c r="G10" s="12">
+        <v>7</v>
+      </c>
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="5">
+        <v>8051</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0</v>
+      </c>
+      <c r="F11" s="7">
+        <v>631</v>
+      </c>
+      <c r="G11" s="6">
+        <v>0</v>
+      </c>
+      <c r="H11" s="9"/>
+    </row>
+    <row r="12" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="14">
+        <v>3102</v>
+      </c>
+      <c r="C12" s="12">
+        <v>0</v>
+      </c>
+      <c r="D12" s="13">
+        <v>0</v>
+      </c>
+      <c r="E12" s="12">
+        <v>0</v>
+      </c>
+      <c r="F12" s="13">
+        <v>576</v>
+      </c>
+      <c r="G12" s="12">
+        <v>6</v>
+      </c>
+      <c r="H12" s="9"/>
+    </row>
+    <row r="13" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="5">
+        <v>8341</v>
+      </c>
+      <c r="C13" s="6">
+        <v>0</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0</v>
+      </c>
+      <c r="E13" s="6">
+        <v>0</v>
+      </c>
+      <c r="F13" s="7">
+        <v>539</v>
+      </c>
+      <c r="G13" s="6">
+        <v>3</v>
+      </c>
+      <c r="H13" s="9"/>
+    </row>
+    <row r="14" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="14">
+        <v>3773</v>
+      </c>
+      <c r="C14" s="12">
+        <v>0</v>
+      </c>
+      <c r="D14" s="13">
+        <v>0</v>
+      </c>
+      <c r="E14" s="12">
+        <v>0</v>
+      </c>
+      <c r="F14" s="13">
+        <v>482</v>
+      </c>
+      <c r="G14" s="12">
+        <v>13</v>
+      </c>
+      <c r="H14" s="9"/>
+    </row>
+    <row r="15" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="5">
+        <v>2154</v>
+      </c>
+      <c r="C15" s="6">
+        <v>1</v>
+      </c>
+      <c r="D15" s="7">
+        <v>9</v>
+      </c>
+      <c r="E15" s="6">
+        <v>0</v>
+      </c>
+      <c r="F15" s="7">
+        <v>436</v>
+      </c>
+      <c r="G15" s="6">
+        <v>8</v>
+      </c>
+      <c r="H15" s="9"/>
+    </row>
+    <row r="16" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="14">
+        <v>2424</v>
+      </c>
+      <c r="C16" s="12">
+        <v>2</v>
+      </c>
+      <c r="D16" s="13">
+        <v>23</v>
+      </c>
+      <c r="E16" s="12">
+        <v>0</v>
+      </c>
+      <c r="F16" s="13">
+        <v>346</v>
+      </c>
+      <c r="G16" s="12">
+        <v>3</v>
+      </c>
+      <c r="H16" s="9"/>
+    </row>
+    <row r="17" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="5">
+        <v>7556</v>
+      </c>
+      <c r="C17" s="6">
+        <v>0</v>
+      </c>
+      <c r="D17" s="7">
+        <v>0</v>
+      </c>
+      <c r="E17" s="6">
+        <v>0</v>
+      </c>
+      <c r="F17" s="7">
+        <v>318</v>
+      </c>
+      <c r="G17" s="6">
+        <v>6</v>
+      </c>
+      <c r="H17" s="9"/>
+    </row>
+    <row r="18" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="14">
+        <v>3941</v>
+      </c>
+      <c r="C18" s="12">
+        <v>0</v>
+      </c>
+      <c r="D18" s="13">
+        <v>0</v>
+      </c>
+      <c r="E18" s="12">
+        <v>0</v>
+      </c>
+      <c r="F18" s="13">
+        <v>296</v>
+      </c>
+      <c r="G18" s="12">
+        <v>1</v>
+      </c>
+      <c r="H18" s="9"/>
+    </row>
+    <row r="19" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="5">
+        <v>4926</v>
+      </c>
+      <c r="C19" s="6">
+        <v>0</v>
+      </c>
+      <c r="D19" s="7">
+        <v>0</v>
+      </c>
+      <c r="E19" s="6">
+        <v>0</v>
+      </c>
+      <c r="F19" s="7">
+        <v>252</v>
+      </c>
+      <c r="G19" s="6">
+        <v>2</v>
+      </c>
+      <c r="H19" s="9"/>
+    </row>
+    <row r="20" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="14">
+        <v>3864</v>
+      </c>
+      <c r="C20" s="12">
+        <v>0</v>
+      </c>
+      <c r="D20" s="13">
+        <v>0</v>
+      </c>
+      <c r="E20" s="12">
+        <v>0</v>
+      </c>
+      <c r="F20" s="13">
+        <v>245</v>
+      </c>
+      <c r="G20" s="12">
+        <v>2</v>
+      </c>
+      <c r="H20" s="9"/>
+    </row>
+    <row r="21" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="5">
+        <v>4830</v>
+      </c>
+      <c r="C21" s="6">
+        <v>0</v>
+      </c>
+      <c r="D21" s="7">
+        <v>0</v>
+      </c>
+      <c r="E21" s="6">
+        <v>0</v>
+      </c>
+      <c r="F21" s="7">
+        <v>174</v>
+      </c>
+      <c r="G21" s="6">
+        <v>2</v>
+      </c>
+      <c r="H21" s="9"/>
+    </row>
+    <row r="22" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="12">
+        <v>934</v>
+      </c>
+      <c r="C22" s="12">
+        <v>0</v>
+      </c>
+      <c r="D22" s="13">
+        <v>0</v>
+      </c>
+      <c r="E22" s="12">
+        <v>0</v>
+      </c>
+      <c r="F22" s="13">
+        <v>168</v>
+      </c>
+      <c r="G22" s="12">
+        <v>6</v>
+      </c>
+      <c r="H22" s="9"/>
+    </row>
+    <row r="23" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="5">
+        <v>3600</v>
+      </c>
+      <c r="C23" s="6">
+        <v>0</v>
+      </c>
+      <c r="D23" s="7">
+        <v>0</v>
+      </c>
+      <c r="E23" s="6">
+        <v>0</v>
+      </c>
+      <c r="F23" s="7">
+        <v>146</v>
+      </c>
+      <c r="G23" s="6">
+        <v>2</v>
+      </c>
+      <c r="H23" s="9"/>
+    </row>
+    <row r="24" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="14">
+        <v>1560</v>
+      </c>
+      <c r="C24" s="12">
+        <v>0</v>
+      </c>
+      <c r="D24" s="13">
+        <v>0</v>
+      </c>
+      <c r="E24" s="12">
+        <v>0</v>
+      </c>
+      <c r="F24" s="13">
+        <v>136</v>
+      </c>
+      <c r="G24" s="12">
+        <v>3</v>
+      </c>
+      <c r="H24" s="9"/>
+    </row>
+    <row r="25" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="5">
+        <v>3718</v>
+      </c>
+      <c r="C25" s="6">
+        <v>0</v>
+      </c>
+      <c r="D25" s="7">
+        <v>0</v>
+      </c>
+      <c r="E25" s="6">
+        <v>0</v>
+      </c>
+      <c r="F25" s="7">
+        <v>133</v>
+      </c>
+      <c r="G25" s="6">
+        <v>0</v>
+      </c>
+      <c r="H25" s="9"/>
+    </row>
+    <row r="26" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="12">
+        <v>745</v>
+      </c>
+      <c r="C26" s="12">
+        <v>2</v>
+      </c>
+      <c r="D26" s="13">
+        <v>0</v>
+      </c>
+      <c r="E26" s="12">
+        <v>0</v>
+      </c>
+      <c r="F26" s="13">
+        <v>131</v>
+      </c>
+      <c r="G26" s="12">
+        <v>3</v>
+      </c>
+      <c r="H26" s="9"/>
+    </row>
+    <row r="27" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="5">
+        <v>2637</v>
+      </c>
+      <c r="C27" s="6">
+        <v>0</v>
+      </c>
+      <c r="D27" s="7">
+        <v>0</v>
+      </c>
+      <c r="E27" s="6">
+        <v>0</v>
+      </c>
+      <c r="F27" s="7">
+        <v>127</v>
+      </c>
+      <c r="G27" s="6">
+        <v>2</v>
+      </c>
+      <c r="H27" s="9"/>
+    </row>
+    <row r="28" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="14">
+        <v>4359</v>
+      </c>
+      <c r="C28" s="12">
+        <v>0</v>
+      </c>
+      <c r="D28" s="13">
+        <v>0</v>
+      </c>
+      <c r="E28" s="12">
+        <v>0</v>
+      </c>
+      <c r="F28" s="13">
+        <v>125</v>
+      </c>
+      <c r="G28" s="12">
+        <v>1</v>
+      </c>
+      <c r="H28" s="9"/>
+    </row>
+    <row r="29" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="5">
+        <v>2704</v>
+      </c>
+      <c r="C29" s="6">
+        <v>0</v>
+      </c>
+      <c r="D29" s="7">
+        <v>0</v>
+      </c>
+      <c r="E29" s="6">
+        <v>0</v>
+      </c>
+      <c r="F29" s="6">
+        <v>93</v>
+      </c>
+      <c r="G29" s="6">
+        <v>1</v>
+      </c>
+      <c r="H29" s="9"/>
+    </row>
+    <row r="30" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="14">
+        <v>2487</v>
+      </c>
+      <c r="C30" s="12">
+        <v>0</v>
+      </c>
+      <c r="D30" s="13">
+        <v>0</v>
+      </c>
+      <c r="E30" s="12">
+        <v>0</v>
+      </c>
+      <c r="F30" s="12">
+        <v>76</v>
+      </c>
+      <c r="G30" s="12">
+        <v>3</v>
+      </c>
+      <c r="H30" s="9"/>
+    </row>
+    <row r="31" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="6">
+        <v>688</v>
+      </c>
+      <c r="C31" s="6">
+        <v>0</v>
+      </c>
+      <c r="D31" s="7">
+        <v>0</v>
+      </c>
+      <c r="E31" s="6">
+        <v>0</v>
+      </c>
+      <c r="F31" s="6">
+        <v>75</v>
+      </c>
+      <c r="G31" s="6">
+        <v>0</v>
+      </c>
+      <c r="H31" s="9"/>
+    </row>
+    <row r="32" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="14">
+        <v>2534</v>
+      </c>
+      <c r="C32" s="12">
+        <v>0</v>
+      </c>
+      <c r="D32" s="13">
+        <v>0</v>
+      </c>
+      <c r="E32" s="12">
+        <v>0</v>
+      </c>
+      <c r="F32" s="12">
+        <v>75</v>
+      </c>
+      <c r="G32" s="12">
+        <v>1</v>
+      </c>
+      <c r="H32" s="9"/>
+    </row>
+    <row r="33" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="5">
+        <v>2359</v>
+      </c>
+      <c r="C33" s="6">
+        <v>1</v>
+      </c>
+      <c r="D33" s="7">
+        <v>0</v>
+      </c>
+      <c r="E33" s="6">
+        <v>0</v>
+      </c>
+      <c r="F33" s="6">
+        <v>49</v>
+      </c>
+      <c r="G33" s="6">
+        <v>1</v>
+      </c>
+      <c r="H33" s="9"/>
+    </row>
+    <row r="34" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="12">
+        <v>603</v>
+      </c>
+      <c r="C34" s="12">
+        <v>0</v>
+      </c>
+      <c r="D34" s="13">
+        <v>0</v>
+      </c>
+      <c r="E34" s="12">
+        <v>0</v>
+      </c>
+      <c r="F34" s="12">
+        <v>18</v>
+      </c>
+      <c r="G34" s="12">
+        <v>0</v>
+      </c>
+      <c r="H34" s="9"/>
+    </row>
+    <row r="35" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" s="6">
+        <v>66</v>
+      </c>
+      <c r="C35" s="6">
+        <v>0</v>
+      </c>
+      <c r="D35" s="7">
+        <v>0</v>
+      </c>
+      <c r="E35" s="6">
+        <v>0</v>
+      </c>
+      <c r="F35" s="6">
+        <v>10</v>
+      </c>
+      <c r="G35" s="6">
+        <v>0</v>
+      </c>
+      <c r="H35" s="9"/>
+    </row>
+    <row r="36" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" s="12">
+        <v>344</v>
+      </c>
+      <c r="C36" s="12">
+        <v>0</v>
+      </c>
+      <c r="D36" s="13">
+        <v>0</v>
+      </c>
+      <c r="E36" s="12">
+        <v>0</v>
+      </c>
+      <c r="F36" s="12">
+        <v>1</v>
+      </c>
+      <c r="G36" s="12">
+        <v>0</v>
+      </c>
+      <c r="H36" s="9"/>
+    </row>
+    <row r="37" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" s="16">
+        <v>142823</v>
+      </c>
+      <c r="C37" s="17">
+        <v>11</v>
+      </c>
+      <c r="D37" s="18">
+        <v>33</v>
+      </c>
+      <c r="E37" s="17">
+        <v>7</v>
+      </c>
+      <c r="F37" s="19">
+        <v>80991</v>
+      </c>
+      <c r="G37" s="17">
+        <v>3180</v>
+      </c>
+      <c r="H37" s="9"/>
+    </row>
+    <row r="38" spans="1:8" ht="62.25" x14ac:dyDescent="0.2">
+      <c r="A38" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D38" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="E38" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F38" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="G38" s="26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A39" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39" s="50"/>
+      <c r="C39" s="50"/>
+      <c r="D39" s="50"/>
+      <c r="E39" s="50"/>
+      <c r="F39" s="50"/>
+      <c r="G39" s="51"/>
+    </row>
+    <row r="40" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A40" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40" s="11">
+        <v>7979</v>
+      </c>
+      <c r="C40" s="12">
+        <v>110</v>
+      </c>
+      <c r="D40" s="12">
+        <v>66</v>
+      </c>
+      <c r="E40" s="12">
+        <v>0</v>
+      </c>
+      <c r="F40" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="G40" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A41" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B41" s="12">
+        <v>675</v>
+      </c>
+      <c r="C41" s="12">
+        <v>55</v>
+      </c>
+      <c r="D41" s="12">
+        <v>19</v>
+      </c>
+      <c r="E41" s="12">
+        <v>4</v>
+      </c>
+      <c r="F41" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="G41" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A42" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B42" s="12">
+        <v>187</v>
+      </c>
+      <c r="C42" s="12">
+        <v>9</v>
+      </c>
+      <c r="D42" s="12">
+        <v>0</v>
+      </c>
+      <c r="E42" s="12">
+        <v>0</v>
+      </c>
+      <c r="F42" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="G42" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A43" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B43" s="12">
+        <v>140</v>
+      </c>
+      <c r="C43" s="12">
+        <v>18</v>
+      </c>
+      <c r="D43" s="12">
+        <v>3</v>
+      </c>
+      <c r="E43" s="12">
+        <v>0</v>
+      </c>
+      <c r="F43" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="G43" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A44" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B44" s="12">
+        <v>129</v>
+      </c>
+      <c r="C44" s="12">
+        <v>0</v>
+      </c>
+      <c r="D44" s="12">
+        <v>0</v>
+      </c>
+      <c r="E44" s="12">
+        <v>0</v>
+      </c>
+      <c r="F44" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="G44" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A45" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B45" s="12">
+        <v>52</v>
+      </c>
+      <c r="C45" s="12">
+        <v>0</v>
+      </c>
+      <c r="D45" s="12">
+        <v>2</v>
+      </c>
+      <c r="E45" s="12">
+        <v>0</v>
+      </c>
+      <c r="F45" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="G45" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A46" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B46" s="12">
+        <v>39</v>
+      </c>
+      <c r="C46" s="12">
+        <v>0</v>
+      </c>
+      <c r="D46" s="12">
+        <v>0</v>
+      </c>
+      <c r="E46" s="12">
+        <v>0</v>
+      </c>
+      <c r="F46" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="G46" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A47" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B47" s="12">
+        <v>12</v>
+      </c>
+      <c r="C47" s="12">
+        <v>0</v>
+      </c>
+      <c r="D47" s="12">
+        <v>0</v>
+      </c>
+      <c r="E47" s="12">
+        <v>0</v>
+      </c>
+      <c r="F47" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="G47" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A48" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B48" s="12">
         <v>5</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="C48" s="12">
+        <v>2</v>
+      </c>
+      <c r="D48" s="12">
+        <v>0</v>
+      </c>
+      <c r="E48" s="12">
+        <v>0</v>
+      </c>
+      <c r="F48" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="G48" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A49" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B49" s="12">
+        <v>5</v>
+      </c>
+      <c r="C49" s="12">
+        <v>0</v>
+      </c>
+      <c r="D49" s="12">
+        <v>0</v>
+      </c>
+      <c r="E49" s="12">
+        <v>0</v>
+      </c>
+      <c r="F49" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="G49" s="12">
         <v>6</v>
       </c>
-      <c r="F3" s="2" t="s">
+    </row>
+    <row r="50" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A50" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B50" s="12">
+        <v>1</v>
+      </c>
+      <c r="C50" s="12">
+        <v>0</v>
+      </c>
+      <c r="D50" s="12">
+        <v>0</v>
+      </c>
+      <c r="E50" s="12">
+        <v>0</v>
+      </c>
+      <c r="F50" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="G50" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A51" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="B51" s="53"/>
+      <c r="C51" s="53"/>
+      <c r="D51" s="53"/>
+      <c r="E51" s="53"/>
+      <c r="F51" s="53"/>
+      <c r="G51" s="54"/>
+    </row>
+    <row r="52" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A52" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B52" s="12">
+        <v>1</v>
+      </c>
+      <c r="C52" s="12">
+        <v>0</v>
+      </c>
+      <c r="D52" s="12">
+        <v>0</v>
+      </c>
+      <c r="E52" s="12">
+        <v>0</v>
+      </c>
+      <c r="F52" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="G52" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A53" s="49" t="s">
+        <v>65</v>
+      </c>
+      <c r="B53" s="50"/>
+      <c r="C53" s="50"/>
+      <c r="D53" s="50"/>
+      <c r="E53" s="50"/>
+      <c r="F53" s="50"/>
+      <c r="G53" s="51"/>
+    </row>
+    <row r="54" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A54" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B54" s="11">
+        <v>15113</v>
+      </c>
+      <c r="C54" s="12">
+        <v>2651</v>
+      </c>
+      <c r="D54" s="12">
+        <v>1016</v>
+      </c>
+      <c r="E54" s="12">
+        <v>189</v>
+      </c>
+      <c r="F54" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="G54" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A55" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B55" s="11">
+        <v>2965</v>
+      </c>
+      <c r="C55" s="12">
+        <v>825</v>
+      </c>
+      <c r="D55" s="12">
+        <v>84</v>
+      </c>
+      <c r="E55" s="12">
+        <v>36</v>
+      </c>
+      <c r="F55" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="G55" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A56" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B56" s="11">
+        <v>2860</v>
+      </c>
+      <c r="C56" s="12">
+        <v>591</v>
+      </c>
+      <c r="D56" s="12">
+        <v>61</v>
+      </c>
+      <c r="E56" s="12">
+        <v>13</v>
+      </c>
+      <c r="F56" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="G56" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A57" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B57" s="11">
+        <v>2369</v>
+      </c>
+      <c r="C57" s="12">
+        <v>802</v>
+      </c>
+      <c r="D57" s="12">
+        <v>6</v>
+      </c>
+      <c r="E57" s="12">
+        <v>3</v>
+      </c>
+      <c r="F57" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="G57" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A58" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B58" s="12">
+        <v>858</v>
+      </c>
+      <c r="C58" s="12">
+        <v>213</v>
+      </c>
+      <c r="D58" s="12">
+        <v>6</v>
+      </c>
+      <c r="E58" s="12">
+        <v>2</v>
+      </c>
+      <c r="F58" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="G58" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A59" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B59" s="12">
+        <v>674</v>
+      </c>
+      <c r="C59" s="12">
+        <v>59</v>
+      </c>
+      <c r="D59" s="12">
+        <v>0</v>
+      </c>
+      <c r="E59" s="12">
+        <v>0</v>
+      </c>
+      <c r="F59" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="G59" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A60" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B60" s="12">
+        <v>620</v>
+      </c>
+      <c r="C60" s="12">
+        <v>159</v>
+      </c>
+      <c r="D60" s="12">
+        <v>0</v>
+      </c>
+      <c r="E60" s="12">
+        <v>0</v>
+      </c>
+      <c r="F60" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="G60" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A61" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B61" s="12">
+        <v>614</v>
+      </c>
+      <c r="C61" s="12">
+        <v>111</v>
+      </c>
+      <c r="D61" s="12">
+        <v>5</v>
+      </c>
+      <c r="E61" s="12">
+        <v>0</v>
+      </c>
+      <c r="F61" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="G61" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A62" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B62" s="12">
+        <v>594</v>
+      </c>
+      <c r="C62" s="12">
+        <v>134</v>
+      </c>
+      <c r="D62" s="12">
+        <v>8</v>
+      </c>
+      <c r="E62" s="12">
+        <v>2</v>
+      </c>
+      <c r="F62" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="G62" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A63" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B63" s="12">
+        <v>361</v>
+      </c>
+      <c r="C63" s="12">
+        <v>59</v>
+      </c>
+      <c r="D63" s="12">
+        <v>1</v>
+      </c>
+      <c r="E63" s="12">
+        <v>1</v>
+      </c>
+      <c r="F63" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="G63" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A64" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B64" s="12">
+        <v>314</v>
+      </c>
+      <c r="C64" s="12">
+        <v>0</v>
+      </c>
+      <c r="D64" s="12">
+        <v>0</v>
+      </c>
+      <c r="E64" s="12">
+        <v>0</v>
+      </c>
+      <c r="F64" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="G64" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A65" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B65" s="12">
+        <v>489</v>
+      </c>
+      <c r="C65" s="12">
+        <v>0</v>
+      </c>
+      <c r="D65" s="12">
+        <v>0</v>
+      </c>
+      <c r="E65" s="12">
+        <v>0</v>
+      </c>
+      <c r="F65" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="G65" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A66" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B66" s="12">
+        <v>116</v>
+      </c>
+      <c r="C66" s="12">
+        <v>22</v>
+      </c>
+      <c r="D66" s="12">
+        <v>0</v>
+      </c>
+      <c r="E66" s="12">
+        <v>0</v>
+      </c>
+      <c r="F66" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="G66" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A67" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B67" s="12">
+        <v>109</v>
+      </c>
+      <c r="C67" s="12">
+        <v>69</v>
+      </c>
+      <c r="D67" s="12">
+        <v>0</v>
+      </c>
+      <c r="E67" s="12">
+        <v>0</v>
+      </c>
+      <c r="F67" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="G67" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A68" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B68" s="12">
+        <v>98</v>
+      </c>
+      <c r="C68" s="12">
+        <v>0</v>
+      </c>
+      <c r="D68" s="12">
+        <v>1</v>
+      </c>
+      <c r="E68" s="12">
+        <v>0</v>
+      </c>
+      <c r="F68" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="G68" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A69" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B69" s="12">
+        <v>75</v>
+      </c>
+      <c r="C69" s="12">
+        <v>0</v>
+      </c>
+      <c r="D69" s="12">
+        <v>0</v>
+      </c>
+      <c r="E69" s="12">
+        <v>0</v>
+      </c>
+      <c r="F69" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="G69" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A70" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B70" s="12">
+        <v>70</v>
+      </c>
+      <c r="C70" s="12">
+        <v>27</v>
+      </c>
+      <c r="D70" s="12">
+        <v>1</v>
+      </c>
+      <c r="E70" s="12">
+        <v>0</v>
+      </c>
+      <c r="F70" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="G70" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A71" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B71" s="12">
+        <v>63</v>
+      </c>
+      <c r="C71" s="12">
+        <v>0</v>
+      </c>
+      <c r="D71" s="12">
+        <v>2</v>
+      </c>
+      <c r="E71" s="12">
+        <v>0</v>
+      </c>
+      <c r="F71" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="G71" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A72" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B72" s="12">
+        <v>61</v>
+      </c>
+      <c r="C72" s="12">
+        <v>0</v>
+      </c>
+      <c r="D72" s="12">
+        <v>0</v>
+      </c>
+      <c r="E72" s="12">
+        <v>0</v>
+      </c>
+      <c r="F72" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="G72" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A73" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B73" s="12">
+        <v>57</v>
+      </c>
+      <c r="C73" s="12">
+        <v>0</v>
+      </c>
+      <c r="D73" s="12">
+        <v>0</v>
+      </c>
+      <c r="E73" s="12">
+        <v>0</v>
+      </c>
+      <c r="F73" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="G73" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A74" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B74" s="12">
+        <v>49</v>
+      </c>
+      <c r="C74" s="12">
+        <v>5</v>
+      </c>
+      <c r="D74" s="12">
+        <v>1</v>
+      </c>
+      <c r="E74" s="12">
+        <v>1</v>
+      </c>
+      <c r="F74" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="G74" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A75" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B75" s="12">
+        <v>48</v>
+      </c>
+      <c r="C75" s="12">
+        <v>0</v>
+      </c>
+      <c r="D75" s="12">
+        <v>0</v>
+      </c>
+      <c r="E75" s="12">
+        <v>0</v>
+      </c>
+      <c r="F75" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="G75" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A76" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B76" s="12">
+        <v>41</v>
+      </c>
+      <c r="C76" s="12">
+        <v>0</v>
+      </c>
+      <c r="D76" s="12">
+        <v>0</v>
+      </c>
+      <c r="E76" s="12">
+        <v>0</v>
+      </c>
+      <c r="F76" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="G76" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A77" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B77" s="12">
+        <v>34</v>
+      </c>
+      <c r="C77" s="12">
+        <v>14</v>
+      </c>
+      <c r="D77" s="12">
+        <v>0</v>
+      </c>
+      <c r="E77" s="12">
+        <v>0</v>
+      </c>
+      <c r="F77" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="G77" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A78" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B78" s="12">
+        <v>25</v>
+      </c>
+      <c r="C78" s="12">
+        <v>2</v>
+      </c>
+      <c r="D78" s="12">
+        <v>0</v>
+      </c>
+      <c r="E78" s="12">
+        <v>0</v>
+      </c>
+      <c r="F78" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="G78" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A79" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B79" s="12">
+        <v>23</v>
+      </c>
+      <c r="C79" s="12">
+        <v>13</v>
+      </c>
+      <c r="D79" s="12">
+        <v>0</v>
+      </c>
+      <c r="E79" s="12">
+        <v>0</v>
+      </c>
+      <c r="F79" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="G79" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A80" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B80" s="12">
+        <v>21</v>
+      </c>
+      <c r="C80" s="12">
+        <v>11</v>
+      </c>
+      <c r="D80" s="12">
+        <v>0</v>
+      </c>
+      <c r="E80" s="12">
+        <v>0</v>
+      </c>
+      <c r="F80" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="G80" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A81" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B81" s="12">
+        <v>19</v>
+      </c>
+      <c r="C81" s="12">
+        <v>0</v>
+      </c>
+      <c r="D81" s="12">
+        <v>0</v>
+      </c>
+      <c r="E81" s="12">
+        <v>0</v>
+      </c>
+      <c r="F81" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="G81" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A82" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B82" s="12">
+        <v>17</v>
+      </c>
+      <c r="C82" s="12">
+        <v>0</v>
+      </c>
+      <c r="D82" s="12">
+        <v>0</v>
+      </c>
+      <c r="E82" s="12">
+        <v>0</v>
+      </c>
+      <c r="F82" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="G82" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A83" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B83" s="12">
+        <v>16</v>
+      </c>
+      <c r="C83" s="12">
+        <v>0</v>
+      </c>
+      <c r="D83" s="12">
+        <v>0</v>
+      </c>
+      <c r="E83" s="12">
+        <v>0</v>
+      </c>
+      <c r="F83" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="G83" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A84" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B84" s="12">
+        <v>16</v>
+      </c>
+      <c r="C84" s="12">
+        <v>3</v>
+      </c>
+      <c r="D84" s="12">
+        <v>0</v>
+      </c>
+      <c r="E84" s="12">
+        <v>0</v>
+      </c>
+      <c r="F84" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="G84" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A85" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B85" s="12">
+        <v>16</v>
+      </c>
+      <c r="C85" s="12">
+        <v>0</v>
+      </c>
+      <c r="D85" s="12">
+        <v>0</v>
+      </c>
+      <c r="E85" s="12">
+        <v>0</v>
+      </c>
+      <c r="F85" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="G85" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A86" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B86" s="12">
+        <v>13</v>
+      </c>
+      <c r="C86" s="12">
+        <v>0</v>
+      </c>
+      <c r="D86" s="12">
+        <v>0</v>
+      </c>
+      <c r="E86" s="12">
+        <v>0</v>
+      </c>
+      <c r="F86" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="G86" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A87" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B87" s="12">
+        <v>12</v>
+      </c>
+      <c r="C87" s="12">
+        <v>0</v>
+      </c>
+      <c r="D87" s="12">
+        <v>0</v>
+      </c>
+      <c r="E87" s="14">
+        <v>0</v>
+      </c>
+      <c r="F87" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="G87" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A88" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B88" s="12">
+        <v>11</v>
+      </c>
+      <c r="C88" s="12">
+        <v>2</v>
+      </c>
+      <c r="D88" s="12">
+        <v>0</v>
+      </c>
+      <c r="E88" s="14">
+        <v>0</v>
+      </c>
+      <c r="F88" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="G88" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A89" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B89" s="12">
+        <v>9</v>
+      </c>
+      <c r="C89" s="12">
+        <v>3</v>
+      </c>
+      <c r="D89" s="12">
+        <v>0</v>
+      </c>
+      <c r="E89" s="14">
+        <v>0</v>
+      </c>
+      <c r="F89" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="G89" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A90" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B90" s="12">
+        <v>7</v>
+      </c>
+      <c r="C90" s="12">
+        <v>0</v>
+      </c>
+      <c r="D90" s="12">
+        <v>1</v>
+      </c>
+      <c r="E90" s="14">
+        <v>0</v>
+      </c>
+      <c r="F90" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="G90" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A91" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B91" s="12">
+        <v>7</v>
+      </c>
+      <c r="C91" s="12">
+        <v>0</v>
+      </c>
+      <c r="D91" s="12">
+        <v>0</v>
+      </c>
+      <c r="E91" s="14">
+        <v>0</v>
+      </c>
+      <c r="F91" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="G91" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A92" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B92" s="12">
+        <v>6</v>
+      </c>
+      <c r="C92" s="12">
+        <v>0</v>
+      </c>
+      <c r="D92" s="12">
+        <v>0</v>
+      </c>
+      <c r="E92" s="14">
+        <v>0</v>
+      </c>
+      <c r="F92" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="G92" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A93" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="B93" s="29">
         <v>4</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="C93" s="29">
+        <v>0</v>
+      </c>
+      <c r="D93" s="29">
+        <v>0</v>
+      </c>
+      <c r="E93" s="30">
+        <v>0</v>
+      </c>
+      <c r="F93" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="G93" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A94" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B94" s="12">
+        <v>4</v>
+      </c>
+      <c r="C94" s="12">
+        <v>3</v>
+      </c>
+      <c r="D94" s="12">
+        <v>0</v>
+      </c>
+      <c r="E94" s="14">
+        <v>0</v>
+      </c>
+      <c r="F94" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="G94" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A95" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B95" s="12">
+        <v>4</v>
+      </c>
+      <c r="C95" s="12">
+        <v>0</v>
+      </c>
+      <c r="D95" s="12">
+        <v>0</v>
+      </c>
+      <c r="E95" s="14">
+        <v>0</v>
+      </c>
+      <c r="F95" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="G95" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A96" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B96" s="12">
+        <v>3</v>
+      </c>
+      <c r="C96" s="12">
+        <v>0</v>
+      </c>
+      <c r="D96" s="12">
+        <v>0</v>
+      </c>
+      <c r="E96" s="14">
+        <v>0</v>
+      </c>
+      <c r="F96" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="G96" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A97" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B97" s="12">
+        <v>3</v>
+      </c>
+      <c r="C97" s="12">
+        <v>2</v>
+      </c>
+      <c r="D97" s="12">
+        <v>0</v>
+      </c>
+      <c r="E97" s="14">
+        <v>0</v>
+      </c>
+      <c r="F97" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="G97" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A98" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B98" s="12">
+        <v>1</v>
+      </c>
+      <c r="C98" s="12">
+        <v>0</v>
+      </c>
+      <c r="D98" s="12">
+        <v>0</v>
+      </c>
+      <c r="E98" s="14">
+        <v>0</v>
+      </c>
+      <c r="F98" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="G98" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A99" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B99" s="12">
+        <v>1</v>
+      </c>
+      <c r="C99" s="12">
+        <v>0</v>
+      </c>
+      <c r="D99" s="12">
+        <v>0</v>
+      </c>
+      <c r="E99" s="14">
+        <v>0</v>
+      </c>
+      <c r="F99" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="G99" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A100" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B100" s="12">
+        <v>1</v>
+      </c>
+      <c r="C100" s="12">
+        <v>0</v>
+      </c>
+      <c r="D100" s="12">
+        <v>0</v>
+      </c>
+      <c r="E100" s="14">
+        <v>0</v>
+      </c>
+      <c r="F100" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="G100" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A101" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B101" s="12">
+        <v>1</v>
+      </c>
+      <c r="C101" s="12">
+        <v>0</v>
+      </c>
+      <c r="D101" s="12">
+        <v>0</v>
+      </c>
+      <c r="E101" s="14">
+        <v>0</v>
+      </c>
+      <c r="F101" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="G101" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A102" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B102" s="12">
+        <v>1</v>
+      </c>
+      <c r="C102" s="12">
+        <v>0</v>
+      </c>
+      <c r="D102" s="12">
+        <v>0</v>
+      </c>
+      <c r="E102" s="14">
+        <v>0</v>
+      </c>
+      <c r="F102" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="G102" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A103" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="B103" s="53"/>
+      <c r="C103" s="53"/>
+      <c r="D103" s="53"/>
+      <c r="E103" s="53"/>
+      <c r="F103" s="53"/>
+      <c r="G103" s="54"/>
+    </row>
+    <row r="104" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A104" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B104" s="12">
+        <v>2</v>
+      </c>
+      <c r="C104" s="12">
+        <v>0</v>
+      </c>
+      <c r="D104" s="12">
+        <v>0</v>
+      </c>
+      <c r="E104" s="14">
+        <v>0</v>
+      </c>
+      <c r="F104" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="G104" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A105" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B105" s="12">
+        <v>1</v>
+      </c>
+      <c r="C105" s="12">
+        <v>0</v>
+      </c>
+      <c r="D105" s="12">
+        <v>0</v>
+      </c>
+      <c r="E105" s="14">
+        <v>0</v>
+      </c>
+      <c r="F105" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="G105" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A106" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B106" s="12">
+        <v>1</v>
+      </c>
+      <c r="C106" s="12">
+        <v>0</v>
+      </c>
+      <c r="D106" s="12">
+        <v>0</v>
+      </c>
+      <c r="E106" s="14">
+        <v>0</v>
+      </c>
+      <c r="F106" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="G106" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A107" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B107" s="12">
+        <v>2</v>
+      </c>
+      <c r="C107" s="12">
+        <v>2</v>
+      </c>
+      <c r="D107" s="12">
+        <v>0</v>
+      </c>
+      <c r="E107" s="14">
+        <v>0</v>
+      </c>
+      <c r="F107" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="G107" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A108" s="49" t="s">
+        <v>120</v>
+      </c>
+      <c r="B108" s="50"/>
+      <c r="C108" s="50"/>
+      <c r="D108" s="50"/>
+      <c r="E108" s="50"/>
+      <c r="F108" s="50"/>
+      <c r="G108" s="51"/>
+    </row>
+    <row r="109" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A109" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="B109" s="12">
+        <v>75</v>
+      </c>
+      <c r="C109" s="12">
+        <v>5</v>
+      </c>
+      <c r="D109" s="12">
+        <v>1</v>
+      </c>
+      <c r="E109" s="14">
+        <v>0</v>
+      </c>
+      <c r="F109" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="G109" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A110" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B110" s="12">
+        <v>74</v>
+      </c>
+      <c r="C110" s="12">
+        <v>1</v>
+      </c>
+      <c r="D110" s="12">
+        <v>1</v>
+      </c>
+      <c r="E110" s="14">
+        <v>1</v>
+      </c>
+      <c r="F110" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="G110" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A111" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="B111" s="12">
+        <v>34</v>
+      </c>
+      <c r="C111" s="12">
+        <v>0</v>
+      </c>
+      <c r="D111" s="12">
+        <v>1</v>
+      </c>
+      <c r="E111" s="14">
+        <v>0</v>
+      </c>
+      <c r="F111" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="G111" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A112" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B112" s="12">
+        <v>8</v>
+      </c>
+      <c r="C112" s="12">
+        <v>0</v>
+      </c>
+      <c r="D112" s="12">
+        <v>0</v>
+      </c>
+      <c r="E112" s="14">
+        <v>0</v>
+      </c>
+      <c r="F112" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="G112" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A113" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B113" s="12">
+        <v>3</v>
+      </c>
+      <c r="C113" s="12">
+        <v>0</v>
+      </c>
+      <c r="D113" s="12">
+        <v>0</v>
+      </c>
+      <c r="E113" s="14">
+        <v>0</v>
+      </c>
+      <c r="F113" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="G113" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A114" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="B114" s="12">
+        <v>3</v>
+      </c>
+      <c r="C114" s="12">
+        <v>1</v>
+      </c>
+      <c r="D114" s="12">
+        <v>0</v>
+      </c>
+      <c r="E114" s="14">
+        <v>0</v>
+      </c>
+      <c r="F114" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="G114" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A115" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B115" s="12">
+        <v>1</v>
+      </c>
+      <c r="C115" s="12">
+        <v>0</v>
+      </c>
+      <c r="D115" s="12">
+        <v>0</v>
+      </c>
+      <c r="E115" s="14">
+        <v>0</v>
+      </c>
+      <c r="F115" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="G115" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A116" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B116" s="12">
+        <v>1</v>
+      </c>
+      <c r="C116" s="12">
+        <v>0</v>
+      </c>
+      <c r="D116" s="12">
+        <v>0</v>
+      </c>
+      <c r="E116" s="14">
+        <v>0</v>
+      </c>
+      <c r="F116" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="G116" s="12">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A117" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="B117" s="53"/>
+      <c r="C117" s="53"/>
+      <c r="D117" s="53"/>
+      <c r="E117" s="53"/>
+      <c r="F117" s="53"/>
+      <c r="G117" s="54"/>
+    </row>
+    <row r="118" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A118" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B118" s="12">
+        <v>3</v>
+      </c>
+      <c r="C118" s="12">
+        <v>3</v>
+      </c>
+      <c r="D118" s="12">
+        <v>0</v>
+      </c>
+      <c r="E118" s="14">
+        <v>0</v>
+      </c>
+      <c r="F118" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="G118" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A119" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="B119" s="50"/>
+      <c r="C119" s="50"/>
+      <c r="D119" s="50"/>
+      <c r="E119" s="50"/>
+      <c r="F119" s="50"/>
+      <c r="G119" s="51"/>
+    </row>
+    <row r="120" spans="1:7" ht="45" x14ac:dyDescent="0.2">
+      <c r="A120" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="B120" s="29">
+        <v>10075</v>
+      </c>
+      <c r="C120" s="29">
+        <v>1075</v>
+      </c>
+      <c r="D120" s="29">
+        <v>429</v>
+      </c>
+      <c r="E120" s="30">
+        <v>75</v>
+      </c>
+      <c r="F120" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="G120" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A121" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="B121" s="12">
+        <v>262</v>
+      </c>
+      <c r="C121" s="12">
+        <v>0</v>
+      </c>
+      <c r="D121" s="12">
+        <v>0</v>
+      </c>
+      <c r="E121" s="14">
+        <v>0</v>
+      </c>
+      <c r="F121" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="G121" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A122" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="B122" s="12">
+        <v>195</v>
+      </c>
+      <c r="C122" s="12">
         <v>6</v>
       </c>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A4" s="4" t="s">
+      <c r="D122" s="12">
+        <v>0</v>
+      </c>
+      <c r="E122" s="14">
+        <v>0</v>
+      </c>
+      <c r="F122" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="G122" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A123" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="B123" s="12">
+        <v>85</v>
+      </c>
+      <c r="C123" s="12">
+        <v>11</v>
+      </c>
+      <c r="D123" s="12">
+        <v>0</v>
+      </c>
+      <c r="E123" s="14">
+        <v>0</v>
+      </c>
+      <c r="F123" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="G123" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A124" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B124" s="12">
+        <v>80</v>
+      </c>
+      <c r="C124" s="12">
+        <v>0</v>
+      </c>
+      <c r="D124" s="12">
+        <v>0</v>
+      </c>
+      <c r="E124" s="14">
+        <v>0</v>
+      </c>
+      <c r="F124" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="G124" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A125" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B125" s="12">
+        <v>70</v>
+      </c>
+      <c r="C125" s="12">
+        <v>0</v>
+      </c>
+      <c r="D125" s="12">
         <v>7</v>
       </c>
-      <c r="B4" s="5">
-        <v>5917</v>
-      </c>
-      <c r="C4" s="6">
+      <c r="E125" s="14">
+        <v>0</v>
+      </c>
+      <c r="F125" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="G125" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A126" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B126" s="12">
+        <v>67</v>
+      </c>
+      <c r="C126" s="12">
+        <v>0</v>
+      </c>
+      <c r="D126" s="12">
+        <v>1</v>
+      </c>
+      <c r="E126" s="14">
+        <v>0</v>
+      </c>
+      <c r="F126" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="G126" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A127" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B127" s="12">
+        <v>66</v>
+      </c>
+      <c r="C127" s="12">
+        <v>0</v>
+      </c>
+      <c r="D127" s="12">
+        <v>3</v>
+      </c>
+      <c r="E127" s="14">
+        <v>0</v>
+      </c>
+      <c r="F127" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="G127" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A128" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="B128" s="12">
+        <v>21</v>
+      </c>
+      <c r="C128" s="12">
+        <v>0</v>
+      </c>
+      <c r="D128" s="12">
+        <v>0</v>
+      </c>
+      <c r="E128" s="14">
+        <v>0</v>
+      </c>
+      <c r="F128" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="G128" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A129" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B129" s="12">
+        <v>20</v>
+      </c>
+      <c r="C129" s="12">
+        <v>1</v>
+      </c>
+      <c r="D129" s="12">
+        <v>0</v>
+      </c>
+      <c r="E129" s="14">
+        <v>0</v>
+      </c>
+      <c r="F129" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="G129" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A130" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="B130" s="12">
+        <v>18</v>
+      </c>
+      <c r="C130" s="12">
+        <v>0</v>
+      </c>
+      <c r="D130" s="12">
+        <v>0</v>
+      </c>
+      <c r="E130" s="14">
+        <v>0</v>
+      </c>
+      <c r="F130" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="G130" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A131" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B131" s="12">
+        <v>7</v>
+      </c>
+      <c r="C131" s="12">
+        <v>0</v>
+      </c>
+      <c r="D131" s="12">
+        <v>0</v>
+      </c>
+      <c r="E131" s="14">
+        <v>0</v>
+      </c>
+      <c r="F131" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="G131" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A132" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B132" s="12">
+        <v>7</v>
+      </c>
+      <c r="C132" s="12">
+        <v>1</v>
+      </c>
+      <c r="D132" s="12">
+        <v>0</v>
+      </c>
+      <c r="E132" s="14">
+        <v>0</v>
+      </c>
+      <c r="F132" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="G132" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A133" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="B133" s="12">
+        <v>6</v>
+      </c>
+      <c r="C133" s="12">
+        <v>1</v>
+      </c>
+      <c r="D133" s="12">
+        <v>1</v>
+      </c>
+      <c r="E133" s="14">
+        <v>0</v>
+      </c>
+      <c r="F133" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="G133" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A134" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="B134" s="12">
+        <v>1</v>
+      </c>
+      <c r="C134" s="12">
+        <v>0</v>
+      </c>
+      <c r="D134" s="12">
+        <v>0</v>
+      </c>
+      <c r="E134" s="14">
+        <v>0</v>
+      </c>
+      <c r="F134" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="G134" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A135" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="B135" s="53"/>
+      <c r="C135" s="53"/>
+      <c r="D135" s="53"/>
+      <c r="E135" s="53"/>
+      <c r="F135" s="53"/>
+      <c r="G135" s="54"/>
+    </row>
+    <row r="136" spans="1:7" ht="45" x14ac:dyDescent="0.2">
+      <c r="A136" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="B136" s="29">
+        <v>31</v>
+      </c>
+      <c r="C136" s="29">
+        <v>1</v>
+      </c>
+      <c r="D136" s="29">
+        <v>0</v>
+      </c>
+      <c r="E136" s="30">
+        <v>0</v>
+      </c>
+      <c r="F136" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="G136" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A137" s="49" t="s">
+        <v>147</v>
+      </c>
+      <c r="B137" s="50"/>
+      <c r="C137" s="50"/>
+      <c r="D137" s="50"/>
+      <c r="E137" s="50"/>
+      <c r="F137" s="50"/>
+      <c r="G137" s="51"/>
+    </row>
+    <row r="138" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A138" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="B138" s="32">
+        <v>1264</v>
+      </c>
+      <c r="C138" s="29">
+        <v>277</v>
+      </c>
+      <c r="D138" s="29">
+        <v>36</v>
+      </c>
+      <c r="E138" s="29">
+        <v>7</v>
+      </c>
+      <c r="F138" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="G138" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A139" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="B139" s="12">
+        <v>138</v>
+      </c>
+      <c r="C139" s="12">
+        <v>45</v>
+      </c>
+      <c r="D139" s="12">
+        <v>1</v>
+      </c>
+      <c r="E139" s="12">
+        <v>0</v>
+      </c>
+      <c r="F139" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="G139" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A140" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B140" s="12">
+        <v>77</v>
+      </c>
+      <c r="C140" s="12">
+        <v>25</v>
+      </c>
+      <c r="D140" s="12">
+        <v>0</v>
+      </c>
+      <c r="E140" s="12">
+        <v>0</v>
+      </c>
+      <c r="F140" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="G140" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A141" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="B141" s="12">
+        <v>33</v>
+      </c>
+      <c r="C141" s="12">
+        <v>10</v>
+      </c>
+      <c r="D141" s="12">
+        <v>0</v>
+      </c>
+      <c r="E141" s="12">
+        <v>0</v>
+      </c>
+      <c r="F141" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="G141" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A142" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="B142" s="12">
+        <v>31</v>
+      </c>
+      <c r="C142" s="12">
+        <v>12</v>
+      </c>
+      <c r="D142" s="12">
+        <v>1</v>
+      </c>
+      <c r="E142" s="12">
+        <v>0</v>
+      </c>
+      <c r="F142" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="G142" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A143" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="B143" s="12">
+        <v>22</v>
+      </c>
+      <c r="C143" s="12">
+        <v>9</v>
+      </c>
+      <c r="D143" s="12">
+        <v>0</v>
+      </c>
+      <c r="E143" s="12">
+        <v>0</v>
+      </c>
+      <c r="F143" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="G143" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A144" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="B144" s="12">
+        <v>22</v>
+      </c>
+      <c r="C144" s="12">
         <v>5</v>
       </c>
-      <c r="D4" s="7">
-        <v>1</v>
-      </c>
-      <c r="E4" s="6">
+      <c r="D144" s="12">
+        <v>0</v>
+      </c>
+      <c r="E144" s="12">
+        <v>0</v>
+      </c>
+      <c r="F144" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="G144" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A145" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="B145" s="12">
+        <v>17</v>
+      </c>
+      <c r="C145" s="12">
+        <v>0</v>
+      </c>
+      <c r="D145" s="12">
+        <v>0</v>
+      </c>
+      <c r="E145" s="12">
+        <v>0</v>
+      </c>
+      <c r="F145" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="G145" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A146" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="B146" s="12">
+        <v>14</v>
+      </c>
+      <c r="C146" s="12">
+        <v>4</v>
+      </c>
+      <c r="D146" s="12">
+        <v>1</v>
+      </c>
+      <c r="E146" s="12">
+        <v>0</v>
+      </c>
+      <c r="F146" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="G146" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A147" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="B147" s="12">
+        <v>12</v>
+      </c>
+      <c r="C147" s="12">
+        <v>1</v>
+      </c>
+      <c r="D147" s="12">
+        <v>0</v>
+      </c>
+      <c r="E147" s="12">
+        <v>0</v>
+      </c>
+      <c r="F147" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="G147" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A148" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="B148" s="12">
+        <v>9</v>
+      </c>
+      <c r="C148" s="12">
+        <v>0</v>
+      </c>
+      <c r="D148" s="12">
+        <v>0</v>
+      </c>
+      <c r="E148" s="12">
+        <v>0</v>
+      </c>
+      <c r="F148" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="G148" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A149" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B149" s="12">
+        <v>5</v>
+      </c>
+      <c r="C149" s="12">
+        <v>0</v>
+      </c>
+      <c r="D149" s="12">
+        <v>0</v>
+      </c>
+      <c r="E149" s="12">
+        <v>0</v>
+      </c>
+      <c r="F149" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="G149" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A150" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="B150" s="12">
+        <v>5</v>
+      </c>
+      <c r="C150" s="12">
+        <v>0</v>
+      </c>
+      <c r="D150" s="12">
+        <v>0</v>
+      </c>
+      <c r="E150" s="12">
+        <v>0</v>
+      </c>
+      <c r="F150" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="G150" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" ht="45" x14ac:dyDescent="0.2">
+      <c r="A151" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="B151" s="29">
+        <v>3</v>
+      </c>
+      <c r="C151" s="29">
+        <v>1</v>
+      </c>
+      <c r="D151" s="29">
+        <v>0</v>
+      </c>
+      <c r="E151" s="29">
+        <v>0</v>
+      </c>
+      <c r="F151" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="G151" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A152" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="B152" s="12">
+        <v>3</v>
+      </c>
+      <c r="C152" s="12">
+        <v>3</v>
+      </c>
+      <c r="D152" s="12">
+        <v>0</v>
+      </c>
+      <c r="E152" s="12">
+        <v>0</v>
+      </c>
+      <c r="F152" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="G152" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A153" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="B153" s="12">
+        <v>2</v>
+      </c>
+      <c r="C153" s="12">
+        <v>0</v>
+      </c>
+      <c r="D153" s="12">
+        <v>0</v>
+      </c>
+      <c r="E153" s="12">
+        <v>0</v>
+      </c>
+      <c r="F153" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="G153" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A154" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="B154" s="12">
+        <v>1</v>
+      </c>
+      <c r="C154" s="12">
+        <v>1</v>
+      </c>
+      <c r="D154" s="12">
+        <v>1</v>
+      </c>
+      <c r="E154" s="12">
+        <v>1</v>
+      </c>
+      <c r="F154" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="G154" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A155" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="B155" s="12">
+        <v>1</v>
+      </c>
+      <c r="C155" s="12">
+        <v>0</v>
+      </c>
+      <c r="D155" s="12">
+        <v>0</v>
+      </c>
+      <c r="E155" s="12">
+        <v>0</v>
+      </c>
+      <c r="F155" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="G155" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" ht="45" x14ac:dyDescent="0.2">
+      <c r="A156" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="B156" s="29">
+        <v>1</v>
+      </c>
+      <c r="C156" s="29">
+        <v>1</v>
+      </c>
+      <c r="D156" s="29">
+        <v>0</v>
+      </c>
+      <c r="E156" s="29">
+        <v>0</v>
+      </c>
+      <c r="F156" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="G156" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A157" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="B157" s="53"/>
+      <c r="C157" s="53"/>
+      <c r="D157" s="53"/>
+      <c r="E157" s="53"/>
+      <c r="F157" s="53"/>
+      <c r="G157" s="54"/>
+    </row>
+    <row r="158" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A158" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="B158" s="12">
         <v>6</v>
       </c>
-      <c r="F4" s="8">
-        <v>67786</v>
-      </c>
-      <c r="G4" s="6">
-        <v>3062</v>
-      </c>
-      <c r="H4" s="9"/>
-    </row>
-    <row r="5" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A5" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="11">
-        <v>11346</v>
-      </c>
-      <c r="C5" s="12">
-        <v>0</v>
-      </c>
-      <c r="D5" s="13">
-        <v>0</v>
-      </c>
-      <c r="E5" s="12">
-        <v>0</v>
-      </c>
-      <c r="F5" s="13">
-        <v>1356</v>
-      </c>
-      <c r="G5" s="12">
-        <v>8</v>
-      </c>
-      <c r="H5" s="9"/>
-    </row>
-    <row r="6" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="5">
-        <v>9605</v>
-      </c>
-      <c r="C6" s="6">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7">
-        <v>0</v>
-      </c>
-      <c r="E6" s="6">
-        <v>0</v>
-      </c>
-      <c r="F6" s="7">
-        <v>1273</v>
-      </c>
-      <c r="G6" s="6">
-        <v>22</v>
-      </c>
-      <c r="H6" s="9"/>
-    </row>
-    <row r="7" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A7" s="10" t="s">
+      <c r="C158" s="12">
+        <v>1</v>
+      </c>
+      <c r="D158" s="12">
+        <v>0</v>
+      </c>
+      <c r="E158" s="12">
+        <v>0</v>
+      </c>
+      <c r="F158" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="G158" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A159" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="B159" s="12">
+        <v>4</v>
+      </c>
+      <c r="C159" s="12">
+        <v>1</v>
+      </c>
+      <c r="D159" s="12">
+        <v>0</v>
+      </c>
+      <c r="E159" s="12">
+        <v>0</v>
+      </c>
+      <c r="F159" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="G159" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A160" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="B160" s="12">
+        <v>2</v>
+      </c>
+      <c r="C160" s="12">
+        <v>0</v>
+      </c>
+      <c r="D160" s="12">
+        <v>0</v>
+      </c>
+      <c r="E160" s="12">
+        <v>0</v>
+      </c>
+      <c r="F160" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="G160" s="12">
         <v>10</v>
       </c>
-      <c r="B7" s="14">
-        <v>5737</v>
-      </c>
-      <c r="C7" s="12">
-        <v>0</v>
-      </c>
-      <c r="D7" s="13">
-        <v>0</v>
-      </c>
-      <c r="E7" s="12">
-        <v>0</v>
-      </c>
-      <c r="F7" s="13">
-        <v>1215</v>
-      </c>
-      <c r="G7" s="12">
-        <v>1</v>
-      </c>
-      <c r="H7" s="9"/>
-    </row>
-    <row r="8" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="5">
-        <v>6899</v>
-      </c>
-      <c r="C8" s="6">
-        <v>0</v>
-      </c>
-      <c r="D8" s="7">
-        <v>0</v>
-      </c>
-      <c r="E8" s="6">
-        <v>0</v>
-      </c>
-      <c r="F8" s="7">
-        <v>1018</v>
-      </c>
-      <c r="G8" s="6">
+    </row>
+    <row r="161" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A161" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="B161" s="12">
+        <v>1</v>
+      </c>
+      <c r="C161" s="12">
+        <v>0</v>
+      </c>
+      <c r="D161" s="12">
+        <v>0</v>
+      </c>
+      <c r="E161" s="12">
+        <v>0</v>
+      </c>
+      <c r="F161" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="G161" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A162" s="49" t="s">
+        <v>171</v>
+      </c>
+      <c r="B162" s="50"/>
+      <c r="C162" s="50"/>
+      <c r="D162" s="50"/>
+      <c r="E162" s="50"/>
+      <c r="F162" s="50"/>
+      <c r="G162" s="51"/>
+    </row>
+    <row r="163" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A163" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="B163" s="12">
+        <v>25</v>
+      </c>
+      <c r="C163" s="12">
+        <v>0</v>
+      </c>
+      <c r="D163" s="12">
+        <v>1</v>
+      </c>
+      <c r="E163" s="12">
+        <v>0</v>
+      </c>
+      <c r="F163" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="G163" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A164" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="B164" s="12">
+        <v>17</v>
+      </c>
+      <c r="C164" s="12">
         <v>4</v>
       </c>
-      <c r="H8" s="9"/>
-    </row>
-    <row r="9" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A9" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="14">
-        <v>6324</v>
-      </c>
-      <c r="C9" s="12">
-        <v>0</v>
-      </c>
-      <c r="D9" s="13">
-        <v>0</v>
-      </c>
-      <c r="E9" s="12">
-        <v>0</v>
-      </c>
-      <c r="F9" s="13">
-        <v>990</v>
-      </c>
-      <c r="G9" s="12">
+      <c r="D164" s="12">
+        <v>0</v>
+      </c>
+      <c r="E164" s="12">
+        <v>0</v>
+      </c>
+      <c r="F164" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="G164" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A165" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="B165" s="12">
+        <v>10</v>
+      </c>
+      <c r="C165" s="12">
         <v>6</v>
       </c>
-      <c r="H9" s="9"/>
-    </row>
-    <row r="10" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="5">
-        <v>4648</v>
-      </c>
-      <c r="C10" s="6">
-        <v>0</v>
-      </c>
-      <c r="D10" s="7">
-        <v>0</v>
-      </c>
-      <c r="E10" s="6">
-        <v>0</v>
-      </c>
-      <c r="F10" s="7">
-        <v>935</v>
-      </c>
-      <c r="G10" s="6">
-        <v>1</v>
-      </c>
-      <c r="H10" s="9"/>
-    </row>
-    <row r="11" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A11" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="11">
-        <v>10047</v>
-      </c>
-      <c r="C11" s="12">
-        <v>0</v>
-      </c>
-      <c r="D11" s="13">
-        <v>0</v>
-      </c>
-      <c r="E11" s="12">
-        <v>1</v>
-      </c>
-      <c r="F11" s="13">
-        <v>760</v>
-      </c>
-      <c r="G11" s="12">
+      <c r="D165" s="12">
+        <v>0</v>
+      </c>
+      <c r="E165" s="12">
+        <v>0</v>
+      </c>
+      <c r="F165" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="G165" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A166" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="B166" s="12">
+        <v>2</v>
+      </c>
+      <c r="C166" s="12">
+        <v>0</v>
+      </c>
+      <c r="D166" s="12">
+        <v>0</v>
+      </c>
+      <c r="E166" s="12">
+        <v>0</v>
+      </c>
+      <c r="F166" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="G166" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A167" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="B167" s="12">
+        <v>2</v>
+      </c>
+      <c r="C167" s="12">
+        <v>0</v>
+      </c>
+      <c r="D167" s="12">
+        <v>0</v>
+      </c>
+      <c r="E167" s="12">
+        <v>0</v>
+      </c>
+      <c r="F167" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="G167" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A168" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="B168" s="12">
+        <v>2</v>
+      </c>
+      <c r="C168" s="12">
+        <v>0</v>
+      </c>
+      <c r="D168" s="12">
+        <v>0</v>
+      </c>
+      <c r="E168" s="12">
+        <v>0</v>
+      </c>
+      <c r="F168" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="G168" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A169" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="B169" s="12">
+        <v>1</v>
+      </c>
+      <c r="C169" s="12">
+        <v>0</v>
+      </c>
+      <c r="D169" s="12">
+        <v>0</v>
+      </c>
+      <c r="E169" s="12">
+        <v>0</v>
+      </c>
+      <c r="F169" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="G169" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" ht="45" x14ac:dyDescent="0.2">
+      <c r="A170" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="B170" s="29">
+        <v>1</v>
+      </c>
+      <c r="C170" s="29">
+        <v>0</v>
+      </c>
+      <c r="D170" s="29">
+        <v>0</v>
+      </c>
+      <c r="E170" s="29">
+        <v>0</v>
+      </c>
+      <c r="F170" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="G170" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A171" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="B171" s="12">
+        <v>1</v>
+      </c>
+      <c r="C171" s="12">
+        <v>0</v>
+      </c>
+      <c r="D171" s="12">
+        <v>0</v>
+      </c>
+      <c r="E171" s="12">
+        <v>0</v>
+      </c>
+      <c r="F171" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="G171" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A172" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="B172" s="33">
+        <v>51071</v>
+      </c>
+      <c r="C172" s="34">
+        <v>7488</v>
+      </c>
+      <c r="D172" s="34">
+        <v>1768</v>
+      </c>
+      <c r="E172" s="34">
+        <v>335</v>
+      </c>
+      <c r="F172" s="35"/>
+      <c r="G172" s="35"/>
+    </row>
+    <row r="173" spans="1:7" ht="45" x14ac:dyDescent="0.2">
+      <c r="A173" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="B173" s="29">
+        <v>696</v>
+      </c>
+      <c r="C173" s="29">
+        <v>0</v>
+      </c>
+      <c r="D173" s="29">
         <v>7</v>
       </c>
-      <c r="H11" s="9"/>
-    </row>
-    <row r="12" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="5">
-        <v>8051</v>
-      </c>
-      <c r="C12" s="6">
-        <v>0</v>
-      </c>
-      <c r="D12" s="7">
-        <v>0</v>
-      </c>
-      <c r="E12" s="6">
-        <v>0</v>
-      </c>
-      <c r="F12" s="7">
-        <v>631</v>
-      </c>
-      <c r="G12" s="6">
-        <v>0</v>
-      </c>
-      <c r="H12" s="9"/>
-    </row>
-    <row r="13" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A13" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="14">
-        <v>3102</v>
-      </c>
-      <c r="C13" s="12">
-        <v>0</v>
-      </c>
-      <c r="D13" s="13">
-        <v>0</v>
-      </c>
-      <c r="E13" s="12">
-        <v>0</v>
-      </c>
-      <c r="F13" s="13">
-        <v>576</v>
-      </c>
-      <c r="G13" s="12">
-        <v>6</v>
-      </c>
-      <c r="H13" s="9"/>
-    </row>
-    <row r="14" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A14" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="5">
-        <v>8341</v>
-      </c>
-      <c r="C14" s="6">
-        <v>0</v>
-      </c>
-      <c r="D14" s="7">
-        <v>0</v>
-      </c>
-      <c r="E14" s="6">
-        <v>0</v>
-      </c>
-      <c r="F14" s="7">
-        <v>539</v>
-      </c>
-      <c r="G14" s="6">
-        <v>3</v>
-      </c>
-      <c r="H14" s="9"/>
-    </row>
-    <row r="15" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A15" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="14">
-        <v>3773</v>
-      </c>
-      <c r="C15" s="12">
-        <v>0</v>
-      </c>
-      <c r="D15" s="13">
-        <v>0</v>
-      </c>
-      <c r="E15" s="12">
-        <v>0</v>
-      </c>
-      <c r="F15" s="13">
-        <v>482</v>
-      </c>
-      <c r="G15" s="12">
-        <v>13</v>
-      </c>
-      <c r="H15" s="9"/>
-    </row>
-    <row r="16" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A16" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="5">
-        <v>2154</v>
-      </c>
-      <c r="C16" s="6">
-        <v>1</v>
-      </c>
-      <c r="D16" s="7">
-        <v>9</v>
-      </c>
-      <c r="E16" s="6">
-        <v>0</v>
-      </c>
-      <c r="F16" s="7">
-        <v>436</v>
-      </c>
-      <c r="G16" s="6">
-        <v>8</v>
-      </c>
-      <c r="H16" s="9"/>
-    </row>
-    <row r="17" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A17" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="14">
-        <v>2424</v>
-      </c>
-      <c r="C17" s="12">
-        <v>2</v>
-      </c>
-      <c r="D17" s="13">
-        <v>23</v>
-      </c>
-      <c r="E17" s="12">
-        <v>0</v>
-      </c>
-      <c r="F17" s="13">
-        <v>346</v>
-      </c>
-      <c r="G17" s="12">
-        <v>3</v>
-      </c>
-      <c r="H17" s="9"/>
-    </row>
-    <row r="18" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A18" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="5">
-        <v>7556</v>
-      </c>
-      <c r="C18" s="6">
-        <v>0</v>
-      </c>
-      <c r="D18" s="7">
-        <v>0</v>
-      </c>
-      <c r="E18" s="6">
-        <v>0</v>
-      </c>
-      <c r="F18" s="7">
-        <v>318</v>
-      </c>
-      <c r="G18" s="6">
-        <v>6</v>
-      </c>
-      <c r="H18" s="9"/>
-    </row>
-    <row r="19" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A19" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="14">
-        <v>3941</v>
-      </c>
-      <c r="C19" s="12">
-        <v>0</v>
-      </c>
-      <c r="D19" s="13">
-        <v>0</v>
-      </c>
-      <c r="E19" s="12">
-        <v>0</v>
-      </c>
-      <c r="F19" s="13">
-        <v>296</v>
-      </c>
-      <c r="G19" s="12">
-        <v>1</v>
-      </c>
-      <c r="H19" s="9"/>
-    </row>
-    <row r="20" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A20" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="5">
-        <v>4926</v>
-      </c>
-      <c r="C20" s="6">
-        <v>0</v>
-      </c>
-      <c r="D20" s="7">
-        <v>0</v>
-      </c>
-      <c r="E20" s="6">
-        <v>0</v>
-      </c>
-      <c r="F20" s="7">
-        <v>252</v>
-      </c>
-      <c r="G20" s="6">
-        <v>2</v>
-      </c>
-      <c r="H20" s="9"/>
-    </row>
-    <row r="21" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A21" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="14">
-        <v>3864</v>
-      </c>
-      <c r="C21" s="12">
-        <v>0</v>
-      </c>
-      <c r="D21" s="13">
-        <v>0</v>
-      </c>
-      <c r="E21" s="12">
-        <v>0</v>
-      </c>
-      <c r="F21" s="13">
-        <v>245</v>
-      </c>
-      <c r="G21" s="12">
-        <v>2</v>
-      </c>
-      <c r="H21" s="9"/>
-    </row>
-    <row r="22" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A22" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="5">
-        <v>4830</v>
-      </c>
-      <c r="C22" s="6">
-        <v>0</v>
-      </c>
-      <c r="D22" s="7">
-        <v>0</v>
-      </c>
-      <c r="E22" s="6">
-        <v>0</v>
-      </c>
-      <c r="F22" s="7">
-        <v>174</v>
-      </c>
-      <c r="G22" s="6">
-        <v>2</v>
-      </c>
-      <c r="H22" s="9"/>
-    </row>
-    <row r="23" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A23" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="12">
-        <v>934</v>
-      </c>
-      <c r="C23" s="12">
-        <v>0</v>
-      </c>
-      <c r="D23" s="13">
-        <v>0</v>
-      </c>
-      <c r="E23" s="12">
-        <v>0</v>
-      </c>
-      <c r="F23" s="13">
-        <v>168</v>
-      </c>
-      <c r="G23" s="12">
-        <v>6</v>
-      </c>
-      <c r="H23" s="9"/>
-    </row>
-    <row r="24" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A24" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" s="5">
-        <v>3600</v>
-      </c>
-      <c r="C24" s="6">
-        <v>0</v>
-      </c>
-      <c r="D24" s="7">
-        <v>0</v>
-      </c>
-      <c r="E24" s="6">
-        <v>0</v>
-      </c>
-      <c r="F24" s="7">
-        <v>146</v>
-      </c>
-      <c r="G24" s="6">
-        <v>2</v>
-      </c>
-      <c r="H24" s="9"/>
-    </row>
-    <row r="25" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A25" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="14">
-        <v>1560</v>
-      </c>
-      <c r="C25" s="12">
-        <v>0</v>
-      </c>
-      <c r="D25" s="13">
-        <v>0</v>
-      </c>
-      <c r="E25" s="12">
-        <v>0</v>
-      </c>
-      <c r="F25" s="13">
-        <v>136</v>
-      </c>
-      <c r="G25" s="12">
-        <v>3</v>
-      </c>
-      <c r="H25" s="9"/>
-    </row>
-    <row r="26" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A26" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" s="5">
-        <v>3718</v>
-      </c>
-      <c r="C26" s="6">
-        <v>0</v>
-      </c>
-      <c r="D26" s="7">
-        <v>0</v>
-      </c>
-      <c r="E26" s="6">
-        <v>0</v>
-      </c>
-      <c r="F26" s="7">
-        <v>133</v>
-      </c>
-      <c r="G26" s="6">
-        <v>0</v>
-      </c>
-      <c r="H26" s="9"/>
-    </row>
-    <row r="27" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A27" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="12">
-        <v>745</v>
-      </c>
-      <c r="C27" s="12">
-        <v>2</v>
-      </c>
-      <c r="D27" s="13">
-        <v>0</v>
-      </c>
-      <c r="E27" s="12">
-        <v>0</v>
-      </c>
-      <c r="F27" s="13">
-        <v>131</v>
-      </c>
-      <c r="G27" s="12">
-        <v>3</v>
-      </c>
-      <c r="H27" s="9"/>
-    </row>
-    <row r="28" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A28" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" s="5">
-        <v>2637</v>
-      </c>
-      <c r="C28" s="6">
-        <v>0</v>
-      </c>
-      <c r="D28" s="7">
-        <v>0</v>
-      </c>
-      <c r="E28" s="6">
-        <v>0</v>
-      </c>
-      <c r="F28" s="7">
-        <v>127</v>
-      </c>
-      <c r="G28" s="6">
-        <v>2</v>
-      </c>
-      <c r="H28" s="9"/>
-    </row>
-    <row r="29" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A29" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29" s="14">
-        <v>4359</v>
-      </c>
-      <c r="C29" s="12">
-        <v>0</v>
-      </c>
-      <c r="D29" s="13">
-        <v>0</v>
-      </c>
-      <c r="E29" s="12">
-        <v>0</v>
-      </c>
-      <c r="F29" s="13">
-        <v>125</v>
-      </c>
-      <c r="G29" s="12">
-        <v>1</v>
-      </c>
-      <c r="H29" s="9"/>
-    </row>
-    <row r="30" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A30" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" s="5">
-        <v>2704</v>
-      </c>
-      <c r="C30" s="6">
-        <v>0</v>
-      </c>
-      <c r="D30" s="7">
-        <v>0</v>
-      </c>
-      <c r="E30" s="6">
-        <v>0</v>
-      </c>
-      <c r="F30" s="6">
-        <v>93</v>
-      </c>
-      <c r="G30" s="6">
-        <v>1</v>
-      </c>
-      <c r="H30" s="9"/>
-    </row>
-    <row r="31" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A31" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31" s="14">
-        <v>2487</v>
-      </c>
-      <c r="C31" s="12">
-        <v>0</v>
-      </c>
-      <c r="D31" s="13">
-        <v>0</v>
-      </c>
-      <c r="E31" s="12">
-        <v>0</v>
-      </c>
-      <c r="F31" s="12">
-        <v>76</v>
-      </c>
-      <c r="G31" s="12">
-        <v>3</v>
-      </c>
-      <c r="H31" s="9"/>
-    </row>
-    <row r="32" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A32" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32" s="6">
-        <v>688</v>
-      </c>
-      <c r="C32" s="6">
-        <v>0</v>
-      </c>
-      <c r="D32" s="7">
-        <v>0</v>
-      </c>
-      <c r="E32" s="6">
-        <v>0</v>
-      </c>
-      <c r="F32" s="6">
-        <v>75</v>
-      </c>
-      <c r="G32" s="6">
-        <v>0</v>
-      </c>
-      <c r="H32" s="9"/>
-    </row>
-    <row r="33" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A33" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B33" s="14">
-        <v>2534</v>
-      </c>
-      <c r="C33" s="12">
-        <v>0</v>
-      </c>
-      <c r="D33" s="13">
-        <v>0</v>
-      </c>
-      <c r="E33" s="12">
-        <v>0</v>
-      </c>
-      <c r="F33" s="12">
-        <v>75</v>
-      </c>
-      <c r="G33" s="12">
-        <v>1</v>
-      </c>
-      <c r="H33" s="9"/>
-    </row>
-    <row r="34" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A34" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B34" s="5">
-        <v>2359</v>
-      </c>
-      <c r="C34" s="6">
-        <v>1</v>
-      </c>
-      <c r="D34" s="7">
-        <v>0</v>
-      </c>
-      <c r="E34" s="6">
-        <v>0</v>
-      </c>
-      <c r="F34" s="6">
-        <v>49</v>
-      </c>
-      <c r="G34" s="6">
-        <v>1</v>
-      </c>
-      <c r="H34" s="9"/>
-    </row>
-    <row r="35" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A35" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B35" s="12">
-        <v>603</v>
-      </c>
-      <c r="C35" s="12">
-        <v>0</v>
-      </c>
-      <c r="D35" s="13">
-        <v>0</v>
-      </c>
-      <c r="E35" s="12">
-        <v>0</v>
-      </c>
-      <c r="F35" s="12">
-        <v>18</v>
-      </c>
-      <c r="G35" s="12">
-        <v>0</v>
-      </c>
-      <c r="H35" s="9"/>
-    </row>
-    <row r="36" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A36" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B36" s="6">
-        <v>66</v>
-      </c>
-      <c r="C36" s="6">
-        <v>0</v>
-      </c>
-      <c r="D36" s="7">
-        <v>0</v>
-      </c>
-      <c r="E36" s="6">
-        <v>0</v>
-      </c>
-      <c r="F36" s="6">
-        <v>10</v>
-      </c>
-      <c r="G36" s="6">
-        <v>0</v>
-      </c>
-      <c r="H36" s="9"/>
-    </row>
-    <row r="37" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A37" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B37" s="12">
-        <v>344</v>
-      </c>
-      <c r="C37" s="12">
-        <v>0</v>
-      </c>
-      <c r="D37" s="13">
-        <v>0</v>
-      </c>
-      <c r="E37" s="12">
-        <v>0</v>
-      </c>
-      <c r="F37" s="12">
-        <v>1</v>
-      </c>
-      <c r="G37" s="12">
-        <v>0</v>
-      </c>
-      <c r="H37" s="9"/>
-    </row>
-    <row r="38" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A38" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B38" s="16">
-        <v>142823</v>
-      </c>
-      <c r="C38" s="17">
-        <v>11</v>
-      </c>
-      <c r="D38" s="18">
-        <v>33</v>
-      </c>
-      <c r="E38" s="17">
-        <v>7</v>
-      </c>
-      <c r="F38" s="19">
-        <v>80991</v>
-      </c>
-      <c r="G38" s="17">
-        <v>3180</v>
-      </c>
-      <c r="H38" s="9"/>
+      <c r="E173" s="29">
+        <v>0</v>
+      </c>
+      <c r="F173" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="G173" s="29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A174" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="B174" s="36">
+        <v>51767</v>
+      </c>
+      <c r="C174" s="37">
+        <v>7488</v>
+      </c>
+      <c r="D174" s="37">
+        <v>1775</v>
+      </c>
+      <c r="E174" s="37">
+        <v>335</v>
+      </c>
+      <c r="F174" s="38"/>
+      <c r="G174" s="38"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:G2"/>
+  <mergeCells count="15">
+    <mergeCell ref="A162:G162"/>
+    <mergeCell ref="A117:G117"/>
+    <mergeCell ref="A119:G119"/>
+    <mergeCell ref="A135:G135"/>
+    <mergeCell ref="A137:G137"/>
+    <mergeCell ref="A157:G157"/>
+    <mergeCell ref="A39:G39"/>
+    <mergeCell ref="A51:G51"/>
+    <mergeCell ref="A53:G53"/>
+    <mergeCell ref="A103:G103"/>
+    <mergeCell ref="A108:G108"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3696,11 +6704,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H1"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:G51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.83203125" customWidth="1"/>
     <col min="2" max="2" width="13.33203125" customWidth="1"/>
@@ -3712,17 +6720,17 @@
     <col min="8" max="8" width="8.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="72" customHeight="1">
-      <c r="A1" s="49"/>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-    </row>
-    <row r="2" spans="1:8" ht="5.25" customHeight="1">
+    <row r="1" spans="1:8" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="48"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+    </row>
+    <row r="2" spans="1:8" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="20"/>
       <c r="B2" s="20"/>
       <c r="C2" s="20"/>
@@ -3732,7 +6740,7 @@
       <c r="G2" s="20"/>
       <c r="H2" s="9"/>
     </row>
-    <row r="3" spans="1:8" ht="39.950000000000003" customHeight="1">
+    <row r="3" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
         <v>42</v>
       </c>
@@ -3756,19 +6764,19 @@
       </c>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A4" s="50" t="s">
+    <row r="4" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="52"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="9"/>
     </row>
-    <row r="5" spans="1:8" ht="16.5" customHeight="1">
+    <row r="5" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>50</v>
       </c>
@@ -3792,7 +6800,7 @@
       </c>
       <c r="H5" s="9"/>
     </row>
-    <row r="6" spans="1:8" ht="16.5" customHeight="1">
+    <row r="6" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>52</v>
       </c>
@@ -3816,7 +6824,7 @@
       </c>
       <c r="H6" s="9"/>
     </row>
-    <row r="7" spans="1:8" ht="16.5" customHeight="1">
+    <row r="7" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>53</v>
       </c>
@@ -3840,7 +6848,7 @@
       </c>
       <c r="H7" s="9"/>
     </row>
-    <row r="8" spans="1:8" ht="16.5" customHeight="1">
+    <row r="8" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>54</v>
       </c>
@@ -3864,7 +6872,7 @@
       </c>
       <c r="H8" s="9"/>
     </row>
-    <row r="9" spans="1:8" ht="16.5" customHeight="1">
+    <row r="9" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>55</v>
       </c>
@@ -3888,7 +6896,7 @@
       </c>
       <c r="H9" s="9"/>
     </row>
-    <row r="10" spans="1:8" ht="16.5" customHeight="1">
+    <row r="10" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>56</v>
       </c>
@@ -3912,7 +6920,7 @@
       </c>
       <c r="H10" s="9"/>
     </row>
-    <row r="11" spans="1:8" ht="16.5" customHeight="1">
+    <row r="11" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>57</v>
       </c>
@@ -3936,7 +6944,7 @@
       </c>
       <c r="H11" s="9"/>
     </row>
-    <row r="12" spans="1:8" ht="16.5" customHeight="1">
+    <row r="12" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>58</v>
       </c>
@@ -3960,7 +6968,7 @@
       </c>
       <c r="H12" s="9"/>
     </row>
-    <row r="13" spans="1:8" ht="16.5" customHeight="1">
+    <row r="13" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
         <v>60</v>
       </c>
@@ -3984,7 +6992,7 @@
       </c>
       <c r="H13" s="9"/>
     </row>
-    <row r="14" spans="1:8" ht="16.5" customHeight="1">
+    <row r="14" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
         <v>61</v>
       </c>
@@ -4008,7 +7016,7 @@
       </c>
       <c r="H14" s="9"/>
     </row>
-    <row r="15" spans="1:8" ht="21.95" customHeight="1">
+    <row r="15" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
         <v>62</v>
       </c>
@@ -4032,19 +7040,19 @@
       </c>
       <c r="H15" s="9"/>
     </row>
-    <row r="16" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A16" s="53" t="s">
+    <row r="16" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="54"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="55"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="54"/>
       <c r="H16" s="9"/>
     </row>
-    <row r="17" spans="1:8" ht="16.5" customHeight="1">
+    <row r="17" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
         <v>64</v>
       </c>
@@ -4068,19 +7076,19 @@
       </c>
       <c r="H17" s="9"/>
     </row>
-    <row r="18" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A18" s="50" t="s">
+    <row r="18" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="51"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="52"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="51"/>
       <c r="H18" s="9"/>
     </row>
-    <row r="19" spans="1:8" ht="16.5" customHeight="1">
+    <row r="19" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
         <v>66</v>
       </c>
@@ -4104,7 +7112,7 @@
       </c>
       <c r="H19" s="9"/>
     </row>
-    <row r="20" spans="1:8" ht="16.5" customHeight="1">
+    <row r="20" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
         <v>67</v>
       </c>
@@ -4128,7 +7136,7 @@
       </c>
       <c r="H20" s="9"/>
     </row>
-    <row r="21" spans="1:8" ht="16.5" customHeight="1">
+    <row r="21" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
         <v>68</v>
       </c>
@@ -4152,7 +7160,7 @@
       </c>
       <c r="H21" s="9"/>
     </row>
-    <row r="22" spans="1:8" ht="16.5" customHeight="1">
+    <row r="22" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
         <v>69</v>
       </c>
@@ -4176,7 +7184,7 @@
       </c>
       <c r="H22" s="9"/>
     </row>
-    <row r="23" spans="1:8" ht="16.5" customHeight="1">
+    <row r="23" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
         <v>70</v>
       </c>
@@ -4200,7 +7208,7 @@
       </c>
       <c r="H23" s="9"/>
     </row>
-    <row r="24" spans="1:8" ht="16.5" customHeight="1">
+    <row r="24" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
         <v>71</v>
       </c>
@@ -4224,7 +7232,7 @@
       </c>
       <c r="H24" s="9"/>
     </row>
-    <row r="25" spans="1:8" ht="16.5" customHeight="1">
+    <row r="25" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
         <v>72</v>
       </c>
@@ -4248,7 +7256,7 @@
       </c>
       <c r="H25" s="9"/>
     </row>
-    <row r="26" spans="1:8" ht="16.5" customHeight="1">
+    <row r="26" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
         <v>73</v>
       </c>
@@ -4272,7 +7280,7 @@
       </c>
       <c r="H26" s="9"/>
     </row>
-    <row r="27" spans="1:8" ht="16.5" customHeight="1">
+    <row r="27" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
         <v>74</v>
       </c>
@@ -4296,7 +7304,7 @@
       </c>
       <c r="H27" s="9"/>
     </row>
-    <row r="28" spans="1:8" ht="16.5" customHeight="1">
+    <row r="28" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
         <v>75</v>
       </c>
@@ -4320,7 +7328,7 @@
       </c>
       <c r="H28" s="9"/>
     </row>
-    <row r="29" spans="1:8" ht="16.5" customHeight="1">
+    <row r="29" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
         <v>76</v>
       </c>
@@ -4344,7 +7352,7 @@
       </c>
       <c r="H29" s="9"/>
     </row>
-    <row r="30" spans="1:8" ht="16.5" customHeight="1">
+    <row r="30" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
         <v>77</v>
       </c>
@@ -4368,7 +7376,7 @@
       </c>
       <c r="H30" s="9"/>
     </row>
-    <row r="31" spans="1:8" ht="16.5" customHeight="1">
+    <row r="31" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
         <v>78</v>
       </c>
@@ -4392,7 +7400,7 @@
       </c>
       <c r="H31" s="9"/>
     </row>
-    <row r="32" spans="1:8" ht="16.5" customHeight="1">
+    <row r="32" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
         <v>79</v>
       </c>
@@ -4416,7 +7424,7 @@
       </c>
       <c r="H32" s="9"/>
     </row>
-    <row r="33" spans="1:8" ht="16.5" customHeight="1">
+    <row r="33" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
         <v>80</v>
       </c>
@@ -4440,7 +7448,7 @@
       </c>
       <c r="H33" s="9"/>
     </row>
-    <row r="34" spans="1:8" ht="16.5" customHeight="1">
+    <row r="34" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
         <v>81</v>
       </c>
@@ -4464,7 +7472,7 @@
       </c>
       <c r="H34" s="9"/>
     </row>
-    <row r="35" spans="1:8" ht="16.5" customHeight="1">
+    <row r="35" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
         <v>82</v>
       </c>
@@ -4488,7 +7496,7 @@
       </c>
       <c r="H35" s="9"/>
     </row>
-    <row r="36" spans="1:8" ht="16.5" customHeight="1">
+    <row r="36" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
         <v>83</v>
       </c>
@@ -4512,7 +7520,7 @@
       </c>
       <c r="H36" s="9"/>
     </row>
-    <row r="37" spans="1:8" ht="16.5" customHeight="1">
+    <row r="37" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
         <v>84</v>
       </c>
@@ -4536,7 +7544,7 @@
       </c>
       <c r="H37" s="9"/>
     </row>
-    <row r="38" spans="1:8" ht="16.5" customHeight="1">
+    <row r="38" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
         <v>85</v>
       </c>
@@ -4560,7 +7568,7 @@
       </c>
       <c r="H38" s="9"/>
     </row>
-    <row r="39" spans="1:8" ht="16.5" customHeight="1">
+    <row r="39" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
         <v>86</v>
       </c>
@@ -4584,7 +7592,7 @@
       </c>
       <c r="H39" s="9"/>
     </row>
-    <row r="40" spans="1:8" ht="16.5" customHeight="1">
+    <row r="40" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
         <v>87</v>
       </c>
@@ -4608,7 +7616,7 @@
       </c>
       <c r="H40" s="9"/>
     </row>
-    <row r="41" spans="1:8" ht="16.5" customHeight="1">
+    <row r="41" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
         <v>88</v>
       </c>
@@ -4632,7 +7640,7 @@
       </c>
       <c r="H41" s="9"/>
     </row>
-    <row r="42" spans="1:8" ht="16.5" customHeight="1">
+    <row r="42" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
         <v>89</v>
       </c>
@@ -4656,7 +7664,7 @@
       </c>
       <c r="H42" s="9"/>
     </row>
-    <row r="43" spans="1:8" ht="16.5" customHeight="1">
+    <row r="43" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
         <v>90</v>
       </c>
@@ -4680,7 +7688,7 @@
       </c>
       <c r="H43" s="9"/>
     </row>
-    <row r="44" spans="1:8" ht="16.5" customHeight="1">
+    <row r="44" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
         <v>91</v>
       </c>
@@ -4704,7 +7712,7 @@
       </c>
       <c r="H44" s="9"/>
     </row>
-    <row r="45" spans="1:8" ht="16.5" customHeight="1">
+    <row r="45" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
         <v>92</v>
       </c>
@@ -4728,7 +7736,7 @@
       </c>
       <c r="H45" s="9"/>
     </row>
-    <row r="46" spans="1:8" ht="16.5" customHeight="1">
+    <row r="46" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
         <v>93</v>
       </c>
@@ -4752,7 +7760,7 @@
       </c>
       <c r="H46" s="9"/>
     </row>
-    <row r="47" spans="1:8" ht="16.5" customHeight="1">
+    <row r="47" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
         <v>95</v>
       </c>
@@ -4776,7 +7784,7 @@
       </c>
       <c r="H47" s="9"/>
     </row>
-    <row r="48" spans="1:8" ht="16.5" customHeight="1">
+    <row r="48" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
         <v>96</v>
       </c>
@@ -4800,7 +7808,7 @@
       </c>
       <c r="H48" s="9"/>
     </row>
-    <row r="49" spans="1:8" ht="16.5" customHeight="1">
+    <row r="49" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
         <v>97</v>
       </c>
@@ -4824,7 +7832,7 @@
       </c>
       <c r="H49" s="9"/>
     </row>
-    <row r="50" spans="1:8" ht="16.5" customHeight="1">
+    <row r="50" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
         <v>98</v>
       </c>
@@ -4848,7 +7856,7 @@
       </c>
       <c r="H50" s="9"/>
     </row>
-    <row r="51" spans="1:8" ht="16.5" customHeight="1">
+    <row r="51" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
         <v>99</v>
       </c>
@@ -4888,10 +7896,10 @@
   <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection sqref="A1:G50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.83203125" customWidth="1"/>
     <col min="2" max="2" width="13.5" customWidth="1"/>
@@ -4902,7 +7910,7 @@
     <col min="7" max="7" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" customHeight="1">
+    <row r="1" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>100</v>
       </c>
@@ -4925,7 +7933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="16.5" customHeight="1">
+    <row r="2" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>101</v>
       </c>
@@ -4948,7 +7956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16.5" customHeight="1">
+    <row r="3" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>102</v>
       </c>
@@ -4971,7 +7979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="16.5" customHeight="1">
+    <row r="4" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>103</v>
       </c>
@@ -4994,7 +8002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16.5" customHeight="1">
+    <row r="5" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>104</v>
       </c>
@@ -5017,7 +8025,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="16.5" customHeight="1">
+    <row r="6" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>105</v>
       </c>
@@ -5040,7 +8048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="33" customHeight="1">
+    <row r="7" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="28" t="s">
         <v>106</v>
       </c>
@@ -5063,7 +8071,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16.5" customHeight="1">
+    <row r="8" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>107</v>
       </c>
@@ -5086,7 +8094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="16.5" customHeight="1">
+    <row r="9" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>108</v>
       </c>
@@ -5109,7 +8117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="16.5" customHeight="1">
+    <row r="10" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>109</v>
       </c>
@@ -5132,7 +8140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16.5" customHeight="1">
+    <row r="11" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>110</v>
       </c>
@@ -5155,7 +8163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="16.5" customHeight="1">
+    <row r="12" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>111</v>
       </c>
@@ -5178,7 +8186,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="16.5" customHeight="1">
+    <row r="13" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
         <v>112</v>
       </c>
@@ -5201,7 +8209,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="16.5" customHeight="1">
+    <row r="14" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
         <v>113</v>
       </c>
@@ -5224,7 +8232,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="16.5" customHeight="1">
+    <row r="15" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
         <v>114</v>
       </c>
@@ -5247,7 +8255,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="16.5" customHeight="1">
+    <row r="16" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
         <v>115</v>
       </c>
@@ -5270,18 +8278,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A17" s="53" t="s">
+    <row r="17" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="B17" s="54"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="55"/>
-    </row>
-    <row r="18" spans="1:7" ht="16.5" customHeight="1">
+      <c r="B17" s="53"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="54"/>
+    </row>
+    <row r="18" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
         <v>116</v>
       </c>
@@ -5304,7 +8312,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="16.5" customHeight="1">
+    <row r="19" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
         <v>117</v>
       </c>
@@ -5327,7 +8335,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="16.5" customHeight="1">
+    <row r="20" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
         <v>118</v>
       </c>
@@ -5350,7 +8358,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="16.5" customHeight="1">
+    <row r="21" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
         <v>119</v>
       </c>
@@ -5373,18 +8381,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A22" s="50" t="s">
+    <row r="22" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="49" t="s">
         <v>120</v>
       </c>
-      <c r="B22" s="51"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="52"/>
-    </row>
-    <row r="23" spans="1:7" ht="16.5" customHeight="1">
+      <c r="B22" s="50"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="51"/>
+    </row>
+    <row r="23" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
         <v>121</v>
       </c>
@@ -5407,7 +8415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="16.5" customHeight="1">
+    <row r="24" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
         <v>122</v>
       </c>
@@ -5430,7 +8438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="16.5" customHeight="1">
+    <row r="25" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
         <v>123</v>
       </c>
@@ -5453,7 +8461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="16.5" customHeight="1">
+    <row r="26" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
         <v>124</v>
       </c>
@@ -5476,7 +8484,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="16.5" customHeight="1">
+    <row r="27" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
         <v>125</v>
       </c>
@@ -5499,7 +8507,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="16.5" customHeight="1">
+    <row r="28" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
         <v>126</v>
       </c>
@@ -5522,7 +8530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="16.5" customHeight="1">
+    <row r="29" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
         <v>127</v>
       </c>
@@ -5545,7 +8553,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="16.5" customHeight="1">
+    <row r="30" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
         <v>128</v>
       </c>
@@ -5568,18 +8576,18 @@
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A31" s="53" t="s">
+    <row r="31" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="B31" s="54"/>
-      <c r="C31" s="54"/>
-      <c r="D31" s="54"/>
-      <c r="E31" s="54"/>
-      <c r="F31" s="54"/>
-      <c r="G31" s="55"/>
-    </row>
-    <row r="32" spans="1:7" ht="16.5" customHeight="1">
+      <c r="B31" s="53"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="54"/>
+    </row>
+    <row r="32" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
         <v>129</v>
       </c>
@@ -5602,18 +8610,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A33" s="50" t="s">
+    <row r="33" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="B33" s="51"/>
-      <c r="C33" s="51"/>
-      <c r="D33" s="51"/>
-      <c r="E33" s="51"/>
-      <c r="F33" s="51"/>
-      <c r="G33" s="52"/>
-    </row>
-    <row r="34" spans="1:7" ht="33" customHeight="1">
+      <c r="B33" s="50"/>
+      <c r="C33" s="50"/>
+      <c r="D33" s="50"/>
+      <c r="E33" s="50"/>
+      <c r="F33" s="50"/>
+      <c r="G33" s="51"/>
+    </row>
+    <row r="34" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="28" t="s">
         <v>131</v>
       </c>
@@ -5636,7 +8644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="16.5" customHeight="1">
+    <row r="35" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
         <v>132</v>
       </c>
@@ -5659,7 +8667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="16.5" customHeight="1">
+    <row r="36" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
         <v>133</v>
       </c>
@@ -5682,7 +8690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="16.5" customHeight="1">
+    <row r="37" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
         <v>134</v>
       </c>
@@ -5705,7 +8713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="16.5" customHeight="1">
+    <row r="38" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
         <v>135</v>
       </c>
@@ -5728,7 +8736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="16.5" customHeight="1">
+    <row r="39" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
         <v>136</v>
       </c>
@@ -5751,7 +8759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="16.5" customHeight="1">
+    <row r="40" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
         <v>137</v>
       </c>
@@ -5774,7 +8782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="16.5" customHeight="1">
+    <row r="41" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
         <v>138</v>
       </c>
@@ -5797,7 +8805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="16.5" customHeight="1">
+    <row r="42" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
         <v>139</v>
       </c>
@@ -5820,7 +8828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="16.5" customHeight="1">
+    <row r="43" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
         <v>140</v>
       </c>
@@ -5843,7 +8851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="16.5" customHeight="1">
+    <row r="44" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
         <v>141</v>
       </c>
@@ -5866,7 +8874,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="16.5" customHeight="1">
+    <row r="45" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
         <v>142</v>
       </c>
@@ -5889,7 +8897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="16.5" customHeight="1">
+    <row r="46" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
         <v>143</v>
       </c>
@@ -5912,7 +8920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="16.5" customHeight="1">
+    <row r="47" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
         <v>144</v>
       </c>
@@ -5935,7 +8943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="16.5" customHeight="1">
+    <row r="48" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
         <v>145</v>
       </c>
@@ -5958,18 +8966,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A49" s="53" t="s">
+    <row r="49" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="B49" s="54"/>
-      <c r="C49" s="54"/>
-      <c r="D49" s="54"/>
-      <c r="E49" s="54"/>
-      <c r="F49" s="54"/>
-      <c r="G49" s="55"/>
-    </row>
-    <row r="50" spans="1:7" ht="33" customHeight="1">
+      <c r="B49" s="53"/>
+      <c r="C49" s="53"/>
+      <c r="D49" s="53"/>
+      <c r="E49" s="53"/>
+      <c r="F49" s="53"/>
+      <c r="G49" s="54"/>
+    </row>
+    <row r="50" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="28" t="s">
         <v>146</v>
       </c>
@@ -6008,11 +9016,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:H39"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.83203125" customWidth="1"/>
     <col min="2" max="2" width="13.5" customWidth="1"/>
@@ -6024,19 +9032,19 @@
     <col min="8" max="8" width="8.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A1" s="50" t="s">
+    <row r="1" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="49" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="52"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="51"/>
       <c r="H1" s="9"/>
     </row>
-    <row r="2" spans="1:8" ht="33" customHeight="1">
+    <row r="2" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="28" t="s">
         <v>148</v>
       </c>
@@ -6060,7 +9068,7 @@
       </c>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" ht="16.5" customHeight="1">
+    <row r="3" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>149</v>
       </c>
@@ -6084,7 +9092,7 @@
       </c>
       <c r="H3" s="9"/>
     </row>
-    <row r="4" spans="1:8" ht="16.5" customHeight="1">
+    <row r="4" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>150</v>
       </c>
@@ -6108,7 +9116,7 @@
       </c>
       <c r="H4" s="9"/>
     </row>
-    <row r="5" spans="1:8" ht="16.5" customHeight="1">
+    <row r="5" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>151</v>
       </c>
@@ -6132,7 +9140,7 @@
       </c>
       <c r="H5" s="9"/>
     </row>
-    <row r="6" spans="1:8" ht="16.5" customHeight="1">
+    <row r="6" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>152</v>
       </c>
@@ -6156,7 +9164,7 @@
       </c>
       <c r="H6" s="9"/>
     </row>
-    <row r="7" spans="1:8" ht="16.5" customHeight="1">
+    <row r="7" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>153</v>
       </c>
@@ -6180,7 +9188,7 @@
       </c>
       <c r="H7" s="9"/>
     </row>
-    <row r="8" spans="1:8" ht="16.5" customHeight="1">
+    <row r="8" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>154</v>
       </c>
@@ -6204,7 +9212,7 @@
       </c>
       <c r="H8" s="9"/>
     </row>
-    <row r="9" spans="1:8" ht="16.5" customHeight="1">
+    <row r="9" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>155</v>
       </c>
@@ -6228,7 +9236,7 @@
       </c>
       <c r="H9" s="9"/>
     </row>
-    <row r="10" spans="1:8" ht="16.5" customHeight="1">
+    <row r="10" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>156</v>
       </c>
@@ -6252,7 +9260,7 @@
       </c>
       <c r="H10" s="9"/>
     </row>
-    <row r="11" spans="1:8" ht="16.5" customHeight="1">
+    <row r="11" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>157</v>
       </c>
@@ -6276,7 +9284,7 @@
       </c>
       <c r="H11" s="9"/>
     </row>
-    <row r="12" spans="1:8" ht="16.5" customHeight="1">
+    <row r="12" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>158</v>
       </c>
@@ -6300,7 +9308,7 @@
       </c>
       <c r="H12" s="9"/>
     </row>
-    <row r="13" spans="1:8" ht="16.5" customHeight="1">
+    <row r="13" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
         <v>159</v>
       </c>
@@ -6324,7 +9332,7 @@
       </c>
       <c r="H13" s="9"/>
     </row>
-    <row r="14" spans="1:8" ht="16.5" customHeight="1">
+    <row r="14" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
         <v>160</v>
       </c>
@@ -6348,7 +9356,7 @@
       </c>
       <c r="H14" s="9"/>
     </row>
-    <row r="15" spans="1:8" ht="33" customHeight="1">
+    <row r="15" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="28" t="s">
         <v>161</v>
       </c>
@@ -6372,7 +9380,7 @@
       </c>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" ht="16.5" customHeight="1">
+    <row r="16" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
         <v>162</v>
       </c>
@@ -6396,7 +9404,7 @@
       </c>
       <c r="H16" s="9"/>
     </row>
-    <row r="17" spans="1:8" ht="16.5" customHeight="1">
+    <row r="17" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
         <v>163</v>
       </c>
@@ -6420,7 +9428,7 @@
       </c>
       <c r="H17" s="9"/>
     </row>
-    <row r="18" spans="1:8" ht="16.5" customHeight="1">
+    <row r="18" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
         <v>164</v>
       </c>
@@ -6444,7 +9452,7 @@
       </c>
       <c r="H18" s="9"/>
     </row>
-    <row r="19" spans="1:8" ht="16.5" customHeight="1">
+    <row r="19" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
         <v>165</v>
       </c>
@@ -6468,7 +9476,7 @@
       </c>
       <c r="H19" s="9"/>
     </row>
-    <row r="20" spans="1:8" ht="33" customHeight="1">
+    <row r="20" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="28" t="s">
         <v>166</v>
       </c>
@@ -6492,19 +9500,19 @@
       </c>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A21" s="53" t="s">
+    <row r="21" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="B21" s="54"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="55"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="54"/>
       <c r="H21" s="9"/>
     </row>
-    <row r="22" spans="1:8" ht="16.5" customHeight="1">
+    <row r="22" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
         <v>167</v>
       </c>
@@ -6528,7 +9536,7 @@
       </c>
       <c r="H22" s="9"/>
     </row>
-    <row r="23" spans="1:8" ht="16.5" customHeight="1">
+    <row r="23" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
         <v>168</v>
       </c>
@@ -6552,7 +9560,7 @@
       </c>
       <c r="H23" s="9"/>
     </row>
-    <row r="24" spans="1:8" ht="16.5" customHeight="1">
+    <row r="24" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
         <v>169</v>
       </c>
@@ -6576,7 +9584,7 @@
       </c>
       <c r="H24" s="9"/>
     </row>
-    <row r="25" spans="1:8" ht="16.5" customHeight="1">
+    <row r="25" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
         <v>170</v>
       </c>
@@ -6600,19 +9608,19 @@
       </c>
       <c r="H25" s="9"/>
     </row>
-    <row r="26" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A26" s="50" t="s">
+    <row r="26" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="49" t="s">
         <v>171</v>
       </c>
-      <c r="B26" s="51"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="52"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="51"/>
       <c r="H26" s="9"/>
     </row>
-    <row r="27" spans="1:8" ht="16.5" customHeight="1">
+    <row r="27" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
         <v>172</v>
       </c>
@@ -6636,7 +9644,7 @@
       </c>
       <c r="H27" s="9"/>
     </row>
-    <row r="28" spans="1:8" ht="16.5" customHeight="1">
+    <row r="28" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
         <v>173</v>
       </c>
@@ -6660,7 +9668,7 @@
       </c>
       <c r="H28" s="9"/>
     </row>
-    <row r="29" spans="1:8" ht="16.5" customHeight="1">
+    <row r="29" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
         <v>174</v>
       </c>
@@ -6684,7 +9692,7 @@
       </c>
       <c r="H29" s="9"/>
     </row>
-    <row r="30" spans="1:8" ht="16.5" customHeight="1">
+    <row r="30" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
         <v>175</v>
       </c>
@@ -6708,7 +9716,7 @@
       </c>
       <c r="H30" s="9"/>
     </row>
-    <row r="31" spans="1:8" ht="16.5" customHeight="1">
+    <row r="31" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
         <v>176</v>
       </c>
@@ -6732,7 +9740,7 @@
       </c>
       <c r="H31" s="9"/>
     </row>
-    <row r="32" spans="1:8" ht="16.5" customHeight="1">
+    <row r="32" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
         <v>177</v>
       </c>
@@ -6756,7 +9764,7 @@
       </c>
       <c r="H32" s="9"/>
     </row>
-    <row r="33" spans="1:8" ht="16.5" customHeight="1">
+    <row r="33" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
         <v>178</v>
       </c>
@@ -6780,7 +9788,7 @@
       </c>
       <c r="H33" s="9"/>
     </row>
-    <row r="34" spans="1:8" ht="33" customHeight="1">
+    <row r="34" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="28" t="s">
         <v>179</v>
       </c>
@@ -6804,7 +9812,7 @@
       </c>
       <c r="H34" s="1"/>
     </row>
-    <row r="35" spans="1:8" ht="16.5" customHeight="1">
+    <row r="35" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
         <v>180</v>
       </c>
@@ -6828,7 +9836,7 @@
       </c>
       <c r="H35" s="9"/>
     </row>
-    <row r="36" spans="1:8" ht="33" customHeight="1">
+    <row r="36" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="22" t="s">
         <v>181</v>
       </c>
@@ -6848,7 +9856,7 @@
       <c r="G36" s="35"/>
       <c r="H36" s="1"/>
     </row>
-    <row r="37" spans="1:8" ht="40.700000000000003" customHeight="1">
+    <row r="37" spans="1:8" ht="40.700000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="28" t="s">
         <v>182</v>
       </c>
@@ -6872,7 +9880,7 @@
       </c>
       <c r="H37" s="1"/>
     </row>
-    <row r="38" spans="1:8" ht="16.5" customHeight="1">
+    <row r="38" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="21" t="s">
         <v>183</v>
       </c>
@@ -6892,15 +9900,15 @@
       <c r="G38" s="38"/>
       <c r="H38" s="9"/>
     </row>
-    <row r="39" spans="1:8" ht="122.85" customHeight="1">
-      <c r="A39" s="56"/>
-      <c r="B39" s="56"/>
-      <c r="C39" s="56"/>
-      <c r="D39" s="56"/>
-      <c r="E39" s="56"/>
-      <c r="F39" s="56"/>
-      <c r="G39" s="56"/>
-      <c r="H39" s="56"/>
+    <row r="39" spans="1:8" ht="122.85" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="55"/>
+      <c r="B39" s="55"/>
+      <c r="C39" s="55"/>
+      <c r="D39" s="55"/>
+      <c r="E39" s="55"/>
+      <c r="F39" s="55"/>
+      <c r="G39" s="55"/>
+      <c r="H39" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="4">
